--- a/Pubmed/CCHF/ReferenceSummary_Feb25.xlsx
+++ b/Pubmed/CCHF/ReferenceSummary_Feb25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/Library/CloudStorage/Dropbox/Shared/___SystematicReviewsAI/CCHF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/CCHF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0B09C2-EE10-F741-8479-94EEE93AF904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F73D13B-CF75-014A-981B-A1CC0DF1C801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="1920" windowWidth="34260" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4127,20 +4127,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AW182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q113" sqref="Q113"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="108.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" style="15" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.83203125" style="3" customWidth="1"/>
@@ -4243,7 +4243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -4379,7 +4379,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
@@ -4448,7 +4448,7 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -4588,7 +4588,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>68</v>
       </c>
@@ -4659,7 +4659,7 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>75</v>
       </c>
@@ -4732,7 +4732,7 @@
       </c>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>84</v>
       </c>
@@ -4803,7 +4803,7 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>90</v>
       </c>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>95</v>
       </c>
@@ -4941,7 +4941,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>102</v>
       </c>
@@ -5038,7 +5038,7 @@
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
     </row>
-    <row r="13" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>106</v>
       </c>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>111</v>
       </c>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:49" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>117</v>
       </c>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>124</v>
       </c>
@@ -5326,7 +5326,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="1:49" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:49" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>131</v>
       </c>
@@ -5399,7 +5399,7 @@
       </c>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>138</v>
       </c>
@@ -5466,7 +5466,7 @@
       </c>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>144</v>
       </c>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>151</v>
       </c>
@@ -5612,7 +5612,7 @@
       </c>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>155</v>
       </c>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>159</v>
       </c>
@@ -5758,7 +5758,7 @@
       </c>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>167</v>
       </c>
@@ -5827,7 +5827,7 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>173</v>
       </c>
@@ -5900,7 +5900,7 @@
       </c>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>178</v>
       </c>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>184</v>
       </c>
@@ -6040,7 +6040,7 @@
       </c>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>187</v>
       </c>
@@ -6105,7 +6105,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>192</v>
       </c>
@@ -6174,7 +6174,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>198</v>
       </c>
@@ -6247,7 +6247,7 @@
       </c>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
         <v>204</v>
       </c>
@@ -6316,7 +6316,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>211</v>
       </c>
@@ -6413,7 +6413,7 @@
       <c r="AV31" s="1"/>
       <c r="AW31" s="1"/>
     </row>
-    <row r="32" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>219</v>
       </c>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>225</v>
       </c>
@@ -6559,7 +6559,7 @@
       </c>
       <c r="Y33" s="2"/>
     </row>
-    <row r="34" spans="1:25" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>229</v>
       </c>
@@ -6632,7 +6632,7 @@
       </c>
       <c r="Y34" s="2"/>
     </row>
-    <row r="35" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>236</v>
       </c>
@@ -6705,7 +6705,7 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
     </row>
-    <row r="36" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>241</v>
       </c>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="Y36" s="2"/>
     </row>
-    <row r="37" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>245</v>
       </c>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="Y37" s="2"/>
     </row>
-    <row r="38" spans="1:25" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>249</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>256</v>
       </c>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="Y39" s="2"/>
     </row>
-    <row r="40" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>260</v>
       </c>
@@ -7068,7 +7068,7 @@
       </c>
       <c r="Y40" s="2"/>
     </row>
-    <row r="41" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>264</v>
       </c>
@@ -7139,7 +7139,7 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
     </row>
-    <row r="42" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>270</v>
       </c>
@@ -7210,7 +7210,7 @@
       </c>
       <c r="Y42" s="2"/>
     </row>
-    <row r="43" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>275</v>
       </c>
@@ -7279,7 +7279,7 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
     </row>
-    <row r="44" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>280</v>
       </c>
@@ -7354,7 +7354,7 @@
       </c>
       <c r="Y44" s="2"/>
     </row>
-    <row r="45" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>284</v>
       </c>
@@ -7423,7 +7423,7 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
     </row>
-    <row r="46" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>289</v>
       </c>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="Y46" s="2"/>
     </row>
-    <row r="47" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>294</v>
       </c>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="Y47" s="2"/>
     </row>
-    <row r="48" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>301</v>
       </c>
@@ -7640,7 +7640,7 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
     </row>
-    <row r="49" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>306</v>
       </c>
@@ -7711,7 +7711,7 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
     </row>
-    <row r="50" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>312</v>
       </c>
@@ -7780,7 +7780,7 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
     </row>
-    <row r="51" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>317</v>
       </c>
@@ -7843,7 +7843,7 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
     </row>
-    <row r="52" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>322</v>
       </c>
@@ -7912,7 +7912,7 @@
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
     </row>
-    <row r="53" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>327</v>
       </c>
@@ -7981,7 +7981,7 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
     </row>
-    <row r="54" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>333</v>
       </c>
@@ -8050,7 +8050,7 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
     </row>
-    <row r="55" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>336</v>
       </c>
@@ -8119,7 +8119,7 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
     </row>
-    <row r="56" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>340</v>
       </c>
@@ -8208,7 +8208,7 @@
       <c r="AV56" s="1"/>
       <c r="AW56" s="1"/>
     </row>
-    <row r="57" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>343</v>
       </c>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="Y57" s="2"/>
     </row>
-    <row r="58" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>347</v>
       </c>
@@ -8352,7 +8352,7 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
     </row>
-    <row r="59" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>352</v>
       </c>
@@ -8423,7 +8423,7 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
     </row>
-    <row r="60" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>357</v>
       </c>
@@ -8492,7 +8492,7 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
     </row>
-    <row r="61" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>363</v>
       </c>
@@ -8563,7 +8563,7 @@
       </c>
       <c r="Y61" s="2"/>
     </row>
-    <row r="62" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>369</v>
       </c>
@@ -8630,7 +8630,7 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
     </row>
-    <row r="63" spans="1:49" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>373</v>
       </c>
@@ -8703,7 +8703,7 @@
       </c>
       <c r="Y63" s="2"/>
     </row>
-    <row r="64" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>379</v>
       </c>
@@ -8776,7 +8776,7 @@
       </c>
       <c r="Y64" s="2"/>
     </row>
-    <row r="65" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>382</v>
       </c>
@@ -8849,7 +8849,7 @@
       </c>
       <c r="Y65" s="2"/>
     </row>
-    <row r="66" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>386</v>
       </c>
@@ -8920,7 +8920,7 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
     </row>
-    <row r="67" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>390</v>
       </c>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="Y67" s="2"/>
     </row>
-    <row r="68" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>394</v>
       </c>
@@ -9062,7 +9062,7 @@
       </c>
       <c r="Y68" s="2"/>
     </row>
-    <row r="69" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>397</v>
       </c>
@@ -9135,7 +9135,7 @@
       </c>
       <c r="Y69" s="2"/>
     </row>
-    <row r="70" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>400</v>
       </c>
@@ -9198,7 +9198,7 @@
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
     </row>
-    <row r="71" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>403</v>
       </c>
@@ -9271,7 +9271,7 @@
       </c>
       <c r="Y71" s="2"/>
     </row>
-    <row r="72" spans="1:25" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>409</v>
       </c>
@@ -9344,7 +9344,7 @@
       </c>
       <c r="Y72" s="2"/>
     </row>
-    <row r="73" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>417</v>
       </c>
@@ -9417,7 +9417,7 @@
       </c>
       <c r="Y73" s="2"/>
     </row>
-    <row r="74" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>421</v>
       </c>
@@ -9484,7 +9484,7 @@
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
     </row>
-    <row r="75" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>428</v>
       </c>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="Y75" s="2"/>
     </row>
-    <row r="76" spans="1:25" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>433</v>
       </c>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="Y76" s="2"/>
     </row>
-    <row r="77" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>441</v>
       </c>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="Y77" s="2"/>
     </row>
-    <row r="78" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>446</v>
       </c>
@@ -9774,7 +9774,7 @@
       </c>
       <c r="Y78" s="2"/>
     </row>
-    <row r="79" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>450</v>
       </c>
@@ -9843,7 +9843,7 @@
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
     </row>
-    <row r="80" spans="1:25" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>453</v>
       </c>
@@ -9916,7 +9916,7 @@
       </c>
       <c r="Y80" s="2"/>
     </row>
-    <row r="81" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>458</v>
       </c>
@@ -9985,7 +9985,7 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
     </row>
-    <row r="82" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>463</v>
       </c>
@@ -10054,7 +10054,7 @@
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
     </row>
-    <row r="83" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>467</v>
       </c>
@@ -10123,7 +10123,7 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
     </row>
-    <row r="84" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>470</v>
       </c>
@@ -10196,7 +10196,7 @@
       </c>
       <c r="Y84" s="2"/>
     </row>
-    <row r="85" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>474</v>
       </c>
@@ -10267,7 +10267,7 @@
       </c>
       <c r="Y85" s="2"/>
     </row>
-    <row r="86" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>477</v>
       </c>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="Y86" s="2"/>
     </row>
-    <row r="87" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>482</v>
       </c>
@@ -10413,7 +10413,7 @@
       </c>
       <c r="Y87" s="2"/>
     </row>
-    <row r="88" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>486</v>
       </c>
@@ -10484,7 +10484,7 @@
       </c>
       <c r="Y88" s="2"/>
     </row>
-    <row r="89" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>491</v>
       </c>
@@ -10553,7 +10553,7 @@
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
     </row>
-    <row r="90" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>497</v>
       </c>
@@ -10624,7 +10624,7 @@
       </c>
       <c r="Y90" s="2"/>
     </row>
-    <row r="91" spans="1:25" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>500</v>
       </c>
@@ -10697,7 +10697,7 @@
       </c>
       <c r="Y91" s="2"/>
     </row>
-    <row r="92" spans="1:25" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>506</v>
       </c>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="Y92" s="2"/>
     </row>
-    <row r="93" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>510</v>
       </c>
@@ -10841,7 +10841,7 @@
       </c>
       <c r="Y93" s="2"/>
     </row>
-    <row r="94" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>514</v>
       </c>
@@ -10912,7 +10912,7 @@
       </c>
       <c r="Y94" s="2"/>
     </row>
-    <row r="95" spans="1:25" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>519</v>
       </c>
@@ -10985,7 +10985,7 @@
       </c>
       <c r="Y95" s="2"/>
     </row>
-    <row r="96" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>526</v>
       </c>
@@ -11056,7 +11056,7 @@
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
     </row>
-    <row r="97" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>529</v>
       </c>
@@ -11129,7 +11129,7 @@
       </c>
       <c r="Y97" s="2"/>
     </row>
-    <row r="98" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>535</v>
       </c>
@@ -11200,7 +11200,7 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
     </row>
-    <row r="99" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>540</v>
       </c>
@@ -11273,7 +11273,7 @@
       </c>
       <c r="Y99" s="2"/>
     </row>
-    <row r="100" spans="1:25" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>544</v>
       </c>
@@ -11342,7 +11342,7 @@
       </c>
       <c r="Y100" s="2"/>
     </row>
-    <row r="101" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>549</v>
       </c>
@@ -11415,7 +11415,7 @@
       </c>
       <c r="Y101" s="2"/>
     </row>
-    <row r="102" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>556</v>
       </c>
@@ -11482,7 +11482,7 @@
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
     </row>
-    <row r="103" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>561</v>
       </c>
@@ -11555,7 +11555,7 @@
       </c>
       <c r="Y103" s="2"/>
     </row>
-    <row r="104" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>566</v>
       </c>
@@ -11628,7 +11628,7 @@
       </c>
       <c r="Y104" s="2"/>
     </row>
-    <row r="105" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>570</v>
       </c>
@@ -11699,7 +11699,7 @@
       </c>
       <c r="Y105" s="2"/>
     </row>
-    <row r="106" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>576</v>
       </c>
@@ -11770,7 +11770,7 @@
       </c>
       <c r="Y106" s="2"/>
     </row>
-    <row r="107" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>581</v>
       </c>
@@ -11841,7 +11841,7 @@
       </c>
       <c r="Y107" s="2"/>
     </row>
-    <row r="108" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>584</v>
       </c>
@@ -11910,7 +11910,7 @@
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
     </row>
-    <row r="109" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>588</v>
       </c>
@@ -11975,7 +11975,7 @@
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
     </row>
-    <row r="110" spans="1:25" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>591</v>
       </c>
@@ -12048,7 +12048,7 @@
       </c>
       <c r="Y110" s="2"/>
     </row>
-    <row r="111" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>595</v>
       </c>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="Y111" s="2"/>
     </row>
-    <row r="112" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>601</v>
       </c>
@@ -12263,7 +12263,7 @@
       </c>
       <c r="Y113" s="2"/>
     </row>
-    <row r="114" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>611</v>
       </c>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="Y114" s="2"/>
     </row>
-    <row r="115" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>616</v>
       </c>
@@ -12411,7 +12411,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="24" t="s">
         <v>622</v>
       </c>
@@ -12484,7 +12484,7 @@
       </c>
       <c r="Y116" s="2"/>
     </row>
-    <row r="117" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>630</v>
       </c>
@@ -12553,7 +12553,7 @@
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
     </row>
-    <row r="118" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>634</v>
       </c>
@@ -12624,7 +12624,7 @@
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
     </row>
-    <row r="119" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>638</v>
       </c>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="Y119" s="2"/>
     </row>
-    <row r="120" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="21" t="s">
         <v>643</v>
       </c>
@@ -12768,7 +12768,7 @@
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
     </row>
-    <row r="121" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>648</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>654</v>
       </c>
@@ -12914,7 +12914,7 @@
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
     </row>
-    <row r="123" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>657</v>
       </c>
@@ -12979,7 +12979,7 @@
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
     </row>
-    <row r="124" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>661</v>
       </c>
@@ -13050,7 +13050,7 @@
       </c>
       <c r="Y124" s="2"/>
     </row>
-    <row r="125" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>667</v>
       </c>
@@ -13119,7 +13119,7 @@
       </c>
       <c r="Y125" s="2"/>
     </row>
-    <row r="126" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>674</v>
       </c>
@@ -13190,7 +13190,7 @@
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
     </row>
-    <row r="127" spans="1:25" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>680</v>
       </c>
@@ -13263,7 +13263,7 @@
       </c>
       <c r="Y127" s="2"/>
     </row>
-    <row r="128" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>684</v>
       </c>
@@ -13336,7 +13336,7 @@
       </c>
       <c r="Y128" s="2"/>
     </row>
-    <row r="129" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>687</v>
       </c>
@@ -13407,7 +13407,7 @@
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
     </row>
-    <row r="130" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>690</v>
       </c>
@@ -13478,7 +13478,7 @@
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
     </row>
-    <row r="131" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>697</v>
       </c>
@@ -13551,7 +13551,7 @@
       </c>
       <c r="Y131" s="2"/>
     </row>
-    <row r="132" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>701</v>
       </c>
@@ -13622,7 +13622,7 @@
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
     </row>
-    <row r="133" spans="1:25" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>706</v>
       </c>
@@ -13689,7 +13689,7 @@
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
     </row>
-    <row r="134" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>711</v>
       </c>
@@ -13754,7 +13754,7 @@
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
     </row>
-    <row r="135" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>715</v>
       </c>
@@ -13827,7 +13827,7 @@
       </c>
       <c r="Y135" s="2"/>
     </row>
-    <row r="136" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>720</v>
       </c>
@@ -13900,7 +13900,7 @@
       </c>
       <c r="Y136" s="2"/>
     </row>
-    <row r="137" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>723</v>
       </c>
@@ -13971,7 +13971,7 @@
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
     </row>
-    <row r="138" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>729</v>
       </c>
@@ -14042,7 +14042,7 @@
       </c>
       <c r="Y138" s="2"/>
     </row>
-    <row r="139" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>735</v>
       </c>
@@ -14113,7 +14113,7 @@
       </c>
       <c r="Y139" s="2"/>
     </row>
-    <row r="140" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>739</v>
       </c>
@@ -14186,7 +14186,7 @@
       </c>
       <c r="Y140" s="2"/>
     </row>
-    <row r="141" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>745</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="142" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>752</v>
       </c>
@@ -14330,7 +14330,7 @@
       </c>
       <c r="Y142" s="2"/>
     </row>
-    <row r="143" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>755</v>
       </c>
@@ -14403,7 +14403,7 @@
       </c>
       <c r="Y143" s="2"/>
     </row>
-    <row r="144" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>759</v>
       </c>
@@ -14474,7 +14474,7 @@
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
     </row>
-    <row r="145" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>764</v>
       </c>
@@ -14539,7 +14539,7 @@
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
     </row>
-    <row r="146" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>768</v>
       </c>
@@ -14612,7 +14612,7 @@
       </c>
       <c r="Y146" s="2"/>
     </row>
-    <row r="147" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>776</v>
       </c>
@@ -14683,7 +14683,7 @@
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
     </row>
-    <row r="148" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>782</v>
       </c>
@@ -14756,7 +14756,7 @@
       </c>
       <c r="Y148" s="2"/>
     </row>
-    <row r="149" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>786</v>
       </c>
@@ -14823,7 +14823,7 @@
       </c>
       <c r="Y149" s="2"/>
     </row>
-    <row r="150" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>791</v>
       </c>
@@ -14896,7 +14896,7 @@
       </c>
       <c r="Y150" s="2"/>
     </row>
-    <row r="151" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>796</v>
       </c>
@@ -14969,7 +14969,7 @@
       </c>
       <c r="Y151" s="2"/>
     </row>
-    <row r="152" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>801</v>
       </c>
@@ -15040,7 +15040,7 @@
       </c>
       <c r="Y152" s="2"/>
     </row>
-    <row r="153" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
         <v>805</v>
       </c>
@@ -15109,7 +15109,7 @@
       <c r="X153" s="2"/>
       <c r="Y153" s="2"/>
     </row>
-    <row r="154" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>811</v>
       </c>
@@ -15180,7 +15180,7 @@
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
     </row>
-    <row r="155" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>817</v>
       </c>
@@ -15253,7 +15253,7 @@
       </c>
       <c r="Y155" s="2"/>
     </row>
-    <row r="156" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>823</v>
       </c>
@@ -15322,7 +15322,7 @@
       </c>
       <c r="Y156" s="2"/>
     </row>
-    <row r="157" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>830</v>
       </c>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="Y157" s="2"/>
     </row>
-    <row r="158" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>834</v>
       </c>
@@ -15462,7 +15462,7 @@
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
     </row>
-    <row r="159" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>840</v>
       </c>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="Y159" s="2"/>
     </row>
-    <row r="160" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>843</v>
       </c>
@@ -15604,7 +15604,7 @@
       </c>
       <c r="Y160" s="2"/>
     </row>
-    <row r="161" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>846</v>
       </c>
@@ -15671,7 +15671,7 @@
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
     </row>
-    <row r="162" spans="1:25" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>849</v>
       </c>
@@ -15738,7 +15738,7 @@
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
     </row>
-    <row r="163" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>853</v>
       </c>
@@ -15811,7 +15811,7 @@
       </c>
       <c r="Y163" s="2"/>
     </row>
-    <row r="164" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>856</v>
       </c>
@@ -15884,7 +15884,7 @@
       </c>
       <c r="Y164" s="2"/>
     </row>
-    <row r="165" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>859</v>
       </c>
@@ -15955,7 +15955,7 @@
       <c r="X165" s="2"/>
       <c r="Y165" s="2"/>
     </row>
-    <row r="166" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>866</v>
       </c>
@@ -16026,7 +16026,7 @@
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
     </row>
-    <row r="167" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>872</v>
       </c>
@@ -16095,7 +16095,7 @@
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
     </row>
-    <row r="168" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>876</v>
       </c>
@@ -16164,7 +16164,7 @@
       <c r="X168" s="2"/>
       <c r="Y168" s="2"/>
     </row>
-    <row r="169" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>880</v>
       </c>
@@ -16235,7 +16235,7 @@
       </c>
       <c r="Y169" s="2"/>
     </row>
-    <row r="170" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>885</v>
       </c>
@@ -16306,7 +16306,7 @@
       <c r="X170" s="2"/>
       <c r="Y170" s="2"/>
     </row>
-    <row r="171" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>891</v>
       </c>
@@ -16377,7 +16377,7 @@
       <c r="X171" s="2"/>
       <c r="Y171" s="2"/>
     </row>
-    <row r="172" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>896</v>
       </c>
@@ -16448,7 +16448,7 @@
       <c r="X172" s="2"/>
       <c r="Y172" s="2"/>
     </row>
-    <row r="173" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>900</v>
       </c>
@@ -16519,7 +16519,7 @@
       <c r="X173" s="2"/>
       <c r="Y173" s="2"/>
     </row>
-    <row r="174" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>905</v>
       </c>
@@ -16590,7 +16590,7 @@
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
     </row>
-    <row r="175" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
         <v>912</v>
       </c>
@@ -16665,7 +16665,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="176" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
         <v>918</v>
       </c>
@@ -16738,7 +16738,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="177" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="15" t="s">
         <v>921</v>
       </c>
@@ -16809,7 +16809,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="178" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="15" t="s">
         <v>925</v>
       </c>
@@ -16882,7 +16882,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="179" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="15" t="s">
         <v>929</v>
       </c>
@@ -16957,7 +16957,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="180" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="15" t="s">
         <v>934</v>
       </c>
@@ -17028,7 +17028,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="181" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="15" t="s">
         <v>936</v>
       </c>
@@ -17099,7 +17099,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="182" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="15" t="s">
         <v>939</v>
       </c>
@@ -17173,13 +17173,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y182" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="16">
-      <filters>
-        <filter val="not indicated"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Y182" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Pubmed/CCHF/ReferenceSummary_Feb25.xlsx
+++ b/Pubmed/CCHF/ReferenceSummary_Feb25.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/CCHF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindazhou/Dropbox/___SystematicReviewsAI/CCHF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F73D13B-CF75-014A-981B-A1CC0DF1C801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24569CF-D543-8543-BDB8-D310382346B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="1920" windowWidth="34260" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="1220" windowWidth="34260" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="948">
   <si>
     <t>Title</t>
   </si>
@@ -240,9 +240,6 @@
     <t>Am J Trop Med Hyg</t>
   </si>
   <si>
-    <t>UAE</t>
-  </si>
-  <si>
     <t>serum</t>
   </si>
   <si>
@@ -256,9 +253,6 @@
   </si>
   <si>
     <t>1994, 1995</t>
-  </si>
-  <si>
-    <t>Somalia and UAE</t>
   </si>
   <si>
     <t>U75668 to U75678​</t>
@@ -768,9 +762,6 @@
     <t>1956, 1966, 1967, 1968, 1969, 1972, 1975, 1976, 1984, 1985, 1987, 1997, 2003</t>
   </si>
   <si>
-    <t>Greece, Senegal, Mauritania, China, Russia (Astrakhan region), Nigeria, Pakistan, Oman, South Africa, Turkey, Democratic Republic of the Congo</t>
-  </si>
-  <si>
     <t>L, M, and S segments are DQ211612 to DQ211624 (L segments), DQ211625 to DQ211637 (M segments), and DQ211638 to DQ211650 (S segments)​</t>
   </si>
   <si>
@@ -826,9 +817,6 @@
   </si>
   <si>
     <t>1985-2001</t>
-  </si>
-  <si>
-    <t>Burkina Faso, Central Africa Republic, China,Greece, Iraq, Mauritiania, Oman, Pakistan, Congo, Russia, Senegal, Tajikistan</t>
   </si>
   <si>
     <t>FJ435410, FJ435390, and FJ435385</t>
@@ -1316,9 +1304,6 @@
   </si>
   <si>
     <t>1958-2010</t>
-  </si>
-  <si>
-    <t>Albania,Russia, China, Central Assia, Iran, Iraq, Africa,Pakista, Afghanistan, Kosovo,Greece</t>
   </si>
   <si>
     <t>KC846093, KC846094</t>
@@ -1522,9 +1507,6 @@
   </si>
   <si>
     <t>Khurshid A; Hassan M; Alam MM; Aamir UB; Rehman L; Sharif S; Shaukat S; Rana MS; Angez M; Zaidi SS</t>
-  </si>
-  <si>
-    <t>Pakistan, Afghanistan</t>
   </si>
   <si>
     <t>Crimean-Congo Hemorrhagic Fever Virus Clade IV (Asia 1) in Ticks of Western Iran.</t>
@@ -2580,9 +2562,6 @@
   </si>
   <si>
     <t>2018-2021</t>
-  </si>
-  <si>
-    <t>Kenya, Ethiopia, Sudan, Somalia</t>
   </si>
   <si>
     <t>MW424419, MW467897, MW467898, MZ330127, MZ342904, MZ322095, MZ326698, and MZ361738</t>
@@ -3597,6 +3576,24 @@
   <si>
     <t>1988, 1978, 1975, 1970, 1979</t>
   </si>
+  <si>
+    <t>Burkina Faso, Central Africa Republic, China, Greece, Iraq, Mauritiania, Oman, Pakistan, Congo, Russia, Senegal, Tajikistan</t>
+  </si>
+  <si>
+    <t>Greece, Senegal, Mauritania, China, Russia, Nigeria, Pakistan, Oman, South Africa, Turkey, Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Somalia, United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Albania, Russia,  China,  Central Assia,  Iran,  Iraq,  Africa, Pakista, Afghanistan,  Kosovo, Greece</t>
+  </si>
+  <si>
+    <t>Pakistan,  Afghanistan</t>
+  </si>
+  <si>
+    <t>Kenya,  Ethiopia,  Sudan,  Somalia</t>
+  </si>
 </sst>
 </file>
 
@@ -4127,14 +4124,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AW182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="117" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4243,7 +4240,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -4308,7 +4305,7 @@
       </c>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -4379,7 +4376,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
@@ -4448,7 +4445,7 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
@@ -4523,7 +4520,7 @@
       </c>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -4576,11 +4573,11 @@
         <v>1993</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>66</v>
+        <v>774</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -4588,12 +4585,12 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="C7" s="14">
         <v>1997</v>
@@ -4635,19 +4632,19 @@
         <v>9</v>
       </c>
       <c r="P7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>44</v>
@@ -4659,18 +4656,18 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" s="12">
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E8" s="15">
         <v>11749748</v>
@@ -4706,44 +4703,44 @@
         <v>2</v>
       </c>
       <c r="P8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="12">
         <v>2002</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9" s="15">
         <v>11880460</v>
@@ -4785,13 +4782,13 @@
         <v>2000</v>
       </c>
       <c r="R9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>44</v>
@@ -4803,12 +4800,12 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="12">
         <v>2002</v>
@@ -4850,16 +4847,16 @@
         <v>7</v>
       </c>
       <c r="P10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2" t="s">
@@ -4867,25 +4864,25 @@
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C11" s="12">
         <v>2002</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E11" s="15">
         <v>12072526</v>
@@ -4924,35 +4921,35 @@
         <v>50</v>
       </c>
       <c r="Q11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" s="12">
         <v>2002</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E12" s="15">
         <v>12141973</v>
@@ -4994,13 +4991,13 @@
         <v>2001</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U12" s="2" t="s">
         <v>44</v>
@@ -5038,18 +5035,18 @@
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
     </row>
-    <row r="13" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C13" s="12">
         <v>2002</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E13" s="15">
         <v>12226691</v>
@@ -5091,13 +5088,13 @@
         <v>2001</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U13" s="2" t="s">
         <v>44</v>
@@ -5111,18 +5108,18 @@
       </c>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C14" s="12">
         <v>2003</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E14" s="15">
         <v>12574301</v>
@@ -5158,44 +5155,44 @@
         <v>10</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="T14" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="U14" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X14" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:49" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C15" s="12">
         <v>2003</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E15" s="15">
         <v>12692285</v>
@@ -5231,19 +5228,19 @@
         <v>4</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="T15" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="T15" s="18" t="s">
-        <v>123</v>
       </c>
       <c r="U15" s="2" t="s">
         <v>44</v>
@@ -5257,9 +5254,9 @@
       </c>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>47</v>
@@ -5298,46 +5295,46 @@
         <v>28</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O16" s="12">
         <v>14</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="T16" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="U16" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="1:49" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:49" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C17" s="12">
         <v>2004</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E17" s="15">
         <v>14976418</v>
@@ -5373,38 +5370,38 @@
         <v>3</v>
       </c>
       <c r="P17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="S17" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="Q17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="R17" s="2" t="s">
+      <c r="T17" s="18" t="s">
         <v>135</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="T17" s="18" t="s">
-        <v>137</v>
       </c>
       <c r="U17" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C18" s="12">
         <v>2004</v>
@@ -5444,15 +5441,15 @@
       </c>
       <c r="O18" s="12"/>
       <c r="P18" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>44</v>
@@ -5462,22 +5459,22 @@
         <v>54</v>
       </c>
       <c r="X18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y18" s="2"/>
+    </row>
+    <row r="19" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="Y18" s="2"/>
-    </row>
-    <row r="19" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C19" s="12">
         <v>2004</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E19" s="15">
         <v>15084400</v>
@@ -5516,16 +5513,16 @@
         <v>33</v>
       </c>
       <c r="Q19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="S19" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="R19" s="2" t="s">
+      <c r="T19" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="U19" s="2" t="s">
         <v>44</v>
@@ -5539,18 +5536,18 @@
       </c>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C20" s="12">
         <v>2004</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E20" s="23">
         <v>15118210</v>
@@ -5592,13 +5589,13 @@
         <v>2004</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U20" s="2" t="s">
         <v>44</v>
@@ -5608,22 +5605,22 @@
         <v>45</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C21" s="12">
         <v>2004</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E21" s="15">
         <v>15170636</v>
@@ -5659,7 +5656,7 @@
         <v>9</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="2">
         <v>2002</v>
@@ -5668,35 +5665,35 @@
         <v>35</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U21" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="X21" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C22" s="12">
         <v>2004</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E22" s="15">
         <v>15448369</v>
@@ -5732,44 +5729,44 @@
         <v>3</v>
       </c>
       <c r="P22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="R22" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="S22" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="T22" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="U22" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X22" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C23" s="12">
         <v>2004</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E23" s="15">
         <v>15496250</v>
@@ -5808,16 +5805,16 @@
         <v>33</v>
       </c>
       <c r="Q23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="S23" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="R23" s="2" t="s">
+      <c r="T23" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
@@ -5827,18 +5824,18 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C24" s="12">
         <v>2004</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E24" s="15">
         <v>15503207</v>
@@ -5874,44 +5871,44 @@
         <v>7</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="U24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X24" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C25" s="12">
         <v>2004</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E25" s="15">
         <v>15584517</v>
@@ -5950,13 +5947,13 @@
         <v>33</v>
       </c>
       <c r="Q25" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="S25" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -5969,18 +5966,18 @@
       </c>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C26" s="12">
         <v>2005</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E26" s="15">
         <v>15648072</v>
@@ -6022,10 +6019,10 @@
         <v>2001</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2" t="s">
@@ -6033,25 +6030,25 @@
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X26" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C27" s="12">
         <v>2005</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E27" s="15">
         <v>15935414</v>
@@ -6091,13 +6088,13 @@
         <v>2000</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
@@ -6105,18 +6102,18 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C28" s="12">
         <v>2005</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E28" s="15">
         <v>16050511</v>
@@ -6152,19 +6149,19 @@
         <v>70</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q28" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="S28" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="R28" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="T28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
@@ -6174,18 +6171,18 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C29" s="12">
         <v>2006</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E29" s="15">
         <v>16195783</v>
@@ -6221,19 +6218,19 @@
         <v>3</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q29" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="S29" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="T29" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="U29" s="2" t="s">
         <v>44</v>
@@ -6247,18 +6244,18 @@
       </c>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C30" s="12">
         <v>2005</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E30" s="15">
         <v>16298978</v>
@@ -6294,40 +6291,40 @@
         <v>5</v>
       </c>
       <c r="P30" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="R30" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="S30" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="R30" s="2" t="s">
+      <c r="T30" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C31" s="12">
         <v>2005</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E31" s="15">
         <v>16298979</v>
@@ -6363,26 +6360,26 @@
         <v>5</v>
       </c>
       <c r="P31" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="R31" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="S31" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="T31" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="X31" s="2" t="s">
         <v>62</v>
@@ -6413,18 +6410,18 @@
       <c r="AV31" s="1"/>
       <c r="AW31" s="1"/>
     </row>
-    <row r="32" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C32" s="12">
         <v>2006</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E32" s="15">
         <v>16372290</v>
@@ -6460,19 +6457,19 @@
         <v>16</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q32" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="S32" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="T32" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="U32" s="2" t="s">
         <v>44</v>
@@ -6482,22 +6479,22 @@
         <v>54</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C33" s="12">
         <v>2006</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E33" s="15">
         <v>16791423</v>
@@ -6539,20 +6536,20 @@
         <v>2002</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U33" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X33" s="2" t="s">
         <v>62</v>
@@ -6561,16 +6558,16 @@
     </row>
     <row r="34" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C34" s="12">
         <v>2006</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E34" s="15">
         <v>16912331</v>
@@ -6606,44 +6603,44 @@
         <v>13</v>
       </c>
       <c r="P34" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="R34" s="18" t="s">
+        <v>943</v>
+      </c>
+      <c r="S34" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="T34" s="18" t="s">
         <v>232</v>
-      </c>
-      <c r="R34" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="T34" s="18" t="s">
-        <v>235</v>
       </c>
       <c r="U34" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X34" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y34" s="2"/>
     </row>
-    <row r="35" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C35" s="12">
         <v>2006</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E35" s="15">
         <v>17088370</v>
@@ -6679,7 +6676,7 @@
         <v>4</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q35" s="2">
         <v>2005</v>
@@ -6688,10 +6685,10 @@
         <v>41</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="U35" s="2" t="s">
         <v>44</v>
@@ -6705,18 +6702,18 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
     </row>
-    <row r="36" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C36" s="12">
         <v>2008</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E36" s="15">
         <v>17955162</v>
@@ -6752,7 +6749,7 @@
         <v>7</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q36" s="2">
         <v>2005</v>
@@ -6761,35 +6758,35 @@
         <v>41</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X36" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y36" s="2"/>
     </row>
-    <row r="37" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C37" s="12">
         <v>2008</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E37" s="15">
         <v>18197964</v>
@@ -6831,36 +6828,36 @@
         <v>2001</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X37" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y37" s="2"/>
     </row>
-    <row r="38" spans="1:25" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C38" s="12">
         <v>2009</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E38" s="15">
         <v>19161643</v>
@@ -6896,40 +6893,40 @@
         <v>23</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="R38" s="22" t="s">
-        <v>253</v>
+        <v>942</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y38" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C39" s="12">
         <v>2009</v>
@@ -6971,13 +6968,13 @@
         <v>1</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="2" t="s">
@@ -6995,18 +6992,18 @@
       </c>
       <c r="Y39" s="2"/>
     </row>
-    <row r="40" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C40" s="12">
         <v>2009</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E40" s="15">
         <v>19515251</v>
@@ -7051,10 +7048,10 @@
         <v>41</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U40" s="2" t="s">
         <v>44</v>
@@ -7068,18 +7065,18 @@
       </c>
       <c r="Y40" s="2"/>
     </row>
-    <row r="41" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C41" s="12">
         <v>2009</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E41" s="15">
         <v>19523314</v>
@@ -7118,16 +7115,16 @@
         <v>33</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="U41" s="2" t="s">
         <v>44</v>
@@ -7139,18 +7136,18 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
     </row>
-    <row r="42" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C42" s="12">
         <v>2009</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E42" s="15">
         <v>19553586</v>
@@ -7186,19 +7183,19 @@
         <v>27</v>
       </c>
       <c r="P42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="R42" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q42" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="S42" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
@@ -7210,18 +7207,18 @@
       </c>
       <c r="Y42" s="2"/>
     </row>
-    <row r="43" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C43" s="12">
         <v>2010</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E43" s="15">
         <v>19845692</v>
@@ -7263,34 +7260,34 @@
         <v>2008</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
     </row>
-    <row r="44" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C44" s="12">
         <v>2010</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E44" s="15">
         <v>19941917</v>
@@ -7335,10 +7332,10 @@
         <v>41</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="U44" s="2" t="s">
         <v>44</v>
@@ -7347,25 +7344,25 @@
         <v>30</v>
       </c>
       <c r="W44" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X44" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y44" s="2"/>
     </row>
-    <row r="45" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C45" s="12">
         <v>2010</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E45" s="15">
         <v>20005760</v>
@@ -7404,16 +7401,16 @@
         <v>33</v>
       </c>
       <c r="Q45" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="R45" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
@@ -7423,18 +7420,18 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
     </row>
-    <row r="46" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C46" s="12">
         <v>2010</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E46" s="15">
         <v>20079776</v>
@@ -7473,41 +7470,41 @@
         <v>33</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="R46" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="U46" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V46" s="2"/>
       <c r="W46" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="X46" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y46" s="2"/>
     </row>
-    <row r="47" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C47" s="12">
         <v>2010</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E47" s="15">
         <v>20599559</v>
@@ -7546,35 +7543,35 @@
         <v>33</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="U47" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V47" s="2"/>
       <c r="W47" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X47" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y47" s="2"/>
     </row>
-    <row r="48" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C48" s="12">
         <v>2011</v>
@@ -7616,19 +7613,19 @@
         <v>3</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="R48" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="U48" s="2" t="s">
         <v>44</v>
@@ -7642,16 +7639,16 @@
     </row>
     <row r="49" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C49" s="12">
         <v>2011</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E49" s="15">
         <v>21035389</v>
@@ -7693,36 +7690,36 @@
         <v>2009</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="U49" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V49" s="2"/>
       <c r="W49" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
     </row>
-    <row r="50" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C50" s="12">
         <v>2011</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E50" s="15">
         <v>21142621</v>
@@ -7764,34 +7761,34 @@
         <v>1981</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
       <c r="W50" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
     </row>
-    <row r="51" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C51" s="12">
         <v>2010</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E51" s="15">
         <v>21144440</v>
@@ -7827,7 +7824,7 @@
         <v>3</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Q51" s="2">
         <v>2008</v>
@@ -7835,7 +7832,7 @@
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
@@ -7843,18 +7840,18 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
     </row>
-    <row r="52" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C52" s="12">
         <v>2010</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E52" s="15">
         <v>21178213</v>
@@ -7890,7 +7887,7 @@
         <v>6</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q52" s="2">
         <v>2007</v>
@@ -7899,10 +7896,10 @@
         <v>35</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
@@ -7912,18 +7909,18 @@
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
     </row>
-    <row r="53" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C53" s="12">
         <v>2011</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E53" s="15">
         <v>21655310</v>
@@ -7962,37 +7959,37 @@
         <v>33</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
       <c r="W53" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
     </row>
-    <row r="54" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C54" s="12">
         <v>2011</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E54" s="15">
         <v>21672268</v>
@@ -8034,13 +8031,13 @@
         <v>2010</v>
       </c>
       <c r="R54" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="S54" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="S54" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="T54" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
@@ -8050,18 +8047,18 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
     </row>
-    <row r="55" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C55" s="12">
         <v>2011</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E55" s="15">
         <v>22022629</v>
@@ -8103,28 +8100,28 @@
         <v>2008</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
       <c r="W55" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
     </row>
-    <row r="56" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C56" s="12">
         <v>2012</v>
@@ -8166,7 +8163,7 @@
         <v>4</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="Q56" s="2">
         <v>2008</v>
@@ -8176,7 +8173,7 @@
       </c>
       <c r="S56" s="2"/>
       <c r="T56" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
@@ -8208,18 +8205,18 @@
       <c r="AV56" s="1"/>
       <c r="AW56" s="1"/>
     </row>
-    <row r="57" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C57" s="12">
         <v>2012</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E57" s="15">
         <v>22246834</v>
@@ -8258,41 +8255,41 @@
         <v>33</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="R57" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U57" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V57" s="2"/>
       <c r="W57" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="X57" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y57" s="2"/>
     </row>
-    <row r="58" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C58" s="12">
         <v>2012</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E58" s="15">
         <v>22260737</v>
@@ -8328,16 +8325,16 @@
         <v>6</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q58" s="2">
         <v>2009</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="T58" s="2" t="s">
         <v>43</v>
@@ -8352,18 +8349,18 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
     </row>
-    <row r="59" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C59" s="12">
         <v>2012</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E59" s="15">
         <v>22261502</v>
@@ -8399,16 +8396,16 @@
         <v>1</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Q59" s="2">
         <v>2010</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="T59" s="2" t="s">
         <v>43</v>
@@ -8423,18 +8420,18 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
     </row>
-    <row r="60" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C60" s="12">
         <v>2012</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E60" s="15">
         <v>22616022</v>
@@ -8470,17 +8467,17 @@
         <v>7</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="S60" s="2"/>
       <c r="T60" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="U60" s="2" t="s">
         <v>44</v>
@@ -8494,10 +8491,10 @@
     </row>
     <row r="61" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C61" s="12">
         <v>2012</v>
@@ -8539,19 +8536,19 @@
         <v>4</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q61" s="2">
         <v>2010</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
@@ -8563,18 +8560,18 @@
       </c>
       <c r="Y61" s="2"/>
     </row>
-    <row r="62" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C62" s="12">
         <v>2012</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E62" s="15">
         <v>23171591</v>
@@ -8610,13 +8607,13 @@
         <v>3</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="Q62" s="2">
         <v>2009</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="S62" s="2"/>
       <c r="T62" s="2" t="s">
@@ -8630,18 +8627,18 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
     </row>
-    <row r="63" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:49" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C63" s="12">
         <v>2013</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E63" s="15">
         <v>23195573</v>
@@ -8677,26 +8674,26 @@
         <v>6</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="S63" s="18" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="U63" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V63" s="2"/>
       <c r="W63" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X63" s="2" t="s">
         <v>32</v>
@@ -8705,16 +8702,16 @@
     </row>
     <row r="64" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C64" s="12">
         <v>2012</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E64" s="15">
         <v>23218389</v>
@@ -8756,13 +8753,13 @@
         <v>2012</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U64" s="2" t="s">
         <v>44</v>
@@ -8776,18 +8773,18 @@
       </c>
       <c r="Y64" s="2"/>
     </row>
-    <row r="65" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C65" s="12">
         <v>2013</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E65" s="15">
         <v>23271164</v>
@@ -8832,10 +8829,10 @@
         <v>35</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U65" s="2" t="s">
         <v>44</v>
@@ -8845,22 +8842,22 @@
         <v>45</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Y65" s="2"/>
     </row>
     <row r="66" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C66" s="12">
         <v>2013</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E66" s="15">
         <v>23641865</v>
@@ -8902,13 +8899,13 @@
         <v>2008</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U66" s="2" t="s">
         <v>44</v>
@@ -8922,16 +8919,16 @@
     </row>
     <row r="67" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C67" s="12">
         <v>2013</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E67" s="15">
         <v>23682136</v>
@@ -8971,38 +8968,38 @@
         <v>2012</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U67" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V67" s="2"/>
       <c r="W67" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X67" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y67" s="2"/>
     </row>
-    <row r="68" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C68" s="12">
         <v>2013</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E68" s="15">
         <v>23735999</v>
@@ -9044,11 +9041,11 @@
         <v>2008</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S68" s="2"/>
       <c r="T68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U68" s="2" t="s">
         <v>44</v>
@@ -9058,22 +9055,22 @@
         <v>45</v>
       </c>
       <c r="X68" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Y68" s="2"/>
     </row>
-    <row r="69" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C69" s="12">
         <v>2013</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E69" s="15">
         <v>23764351</v>
@@ -9115,13 +9112,13 @@
         <v>2010</v>
       </c>
       <c r="R69" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U69" s="2" t="s">
         <v>44</v>
@@ -9135,18 +9132,18 @@
       </c>
       <c r="Y69" s="2"/>
     </row>
-    <row r="70" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C70" s="12">
         <v>2013</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E70" s="15">
         <v>23891575</v>
@@ -9184,32 +9181,32 @@
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
       <c r="W70" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
     </row>
-    <row r="71" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C71" s="12">
         <v>2013</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E71" s="15">
         <v>23908296</v>
@@ -9245,26 +9242,26 @@
         <v>2</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="U71" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V71" s="2"/>
       <c r="W71" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X71" s="2" t="s">
         <v>62</v>
@@ -9273,16 +9270,16 @@
     </row>
     <row r="72" spans="1:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C72" s="12">
         <v>2013</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E72" s="15">
         <v>24223988</v>
@@ -9321,16 +9318,16 @@
         <v>33</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="R72" s="18" t="s">
-        <v>413</v>
+        <v>945</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="U72" s="2" t="s">
         <v>44</v>
@@ -9340,22 +9337,22 @@
         <v>45</v>
       </c>
       <c r="X72" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="Y72" s="2"/>
     </row>
-    <row r="73" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C73" s="12">
         <v>2014</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E73" s="15">
         <v>24416468</v>
@@ -9394,16 +9391,16 @@
         <v>33</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="R73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S73" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="T73" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="S73" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="T73" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="U73" s="2" t="s">
         <v>44</v>
@@ -9417,18 +9414,18 @@
       </c>
       <c r="Y73" s="2"/>
     </row>
-    <row r="74" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C74" s="12">
         <v>2014</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E74" s="15">
         <v>24618184</v>
@@ -9464,19 +9461,19 @@
         <v>22</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="S74" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
@@ -9484,18 +9481,18 @@
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
     </row>
-    <row r="75" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C75" s="12">
         <v>2014</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E75" s="15">
         <v>24751353</v>
@@ -9531,42 +9528,42 @@
         <v>23</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
       <c r="W75" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Y75" s="2"/>
     </row>
-    <row r="76" spans="1:25" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C76" s="12">
         <v>2014</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E76" s="15">
         <v>24786748</v>
@@ -9602,44 +9599,44 @@
         <v>10</v>
       </c>
       <c r="P76" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="R76" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="S76" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="T76" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="U76" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="Q76" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="R76" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="S76" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="T76" s="18" t="s">
-        <v>439</v>
-      </c>
-      <c r="U76" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="V76" s="2"/>
       <c r="W76" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X76" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y76" s="2"/>
     </row>
-    <row r="77" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C77" s="12">
         <v>2014</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E77" s="15">
         <v>24953797</v>
@@ -9675,16 +9672,16 @@
         <v>1</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="Q77" s="2">
         <v>2012</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="T77" s="2" t="s">
         <v>43</v>
@@ -9701,18 +9698,18 @@
       </c>
       <c r="Y77" s="2"/>
     </row>
-    <row r="78" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C78" s="12">
         <v>2014</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E78" s="15">
         <v>25062428</v>
@@ -9748,19 +9745,19 @@
         <v>2</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="R78" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="U78" s="2" t="s">
         <v>44</v>
@@ -9774,18 +9771,18 @@
       </c>
       <c r="Y78" s="2"/>
     </row>
-    <row r="79" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C79" s="12">
         <v>2014</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E79" s="15">
         <v>25108534</v>
@@ -9827,13 +9824,13 @@
         <v>2014</v>
       </c>
       <c r="R79" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="T79" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
@@ -9843,18 +9840,18 @@
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
     </row>
-    <row r="80" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C80" s="12">
         <v>2014</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E80" s="15">
         <v>25255381</v>
@@ -9890,19 +9887,19 @@
         <v>40</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="Q80" s="2">
         <v>2012</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>44</v>
@@ -9916,18 +9913,18 @@
       </c>
       <c r="Y80" s="2"/>
     </row>
-    <row r="81" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C81" s="12">
         <v>2014</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E81" s="15">
         <v>25393542</v>
@@ -9963,17 +9960,17 @@
         <v>3</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="R81" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S81" s="2"/>
       <c r="T81" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="U81" s="2" t="s">
         <v>44</v>
@@ -9985,18 +9982,18 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
     </row>
-    <row r="82" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C82" s="12">
         <v>2015</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E82" s="15">
         <v>25420643</v>
@@ -10035,16 +10032,16 @@
         <v>33</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="R82" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="T82" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
@@ -10054,18 +10051,18 @@
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
     </row>
-    <row r="83" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C83" s="12">
         <v>2015</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E83" s="15">
         <v>25649667</v>
@@ -10110,31 +10107,31 @@
         <v>35</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
       <c r="W83" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
     </row>
-    <row r="84" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C84" s="12">
         <v>2015</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E84" s="15">
         <v>25742932</v>
@@ -10170,7 +10167,7 @@
         <v>4</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="Q84" s="2">
         <v>2013</v>
@@ -10179,7 +10176,7 @@
         <v>35</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="T84" s="2" t="s">
         <v>50</v>
@@ -10198,16 +10195,16 @@
     </row>
     <row r="85" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C85" s="12">
         <v>2015</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E85" s="15">
         <v>25959153</v>
@@ -10249,11 +10246,11 @@
         <v>2011</v>
       </c>
       <c r="R85" s="2" t="s">
-        <v>476</v>
+        <v>946</v>
       </c>
       <c r="S85" s="2"/>
       <c r="T85" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U85" s="2" t="s">
         <v>44</v>
@@ -10263,22 +10260,22 @@
         <v>45</v>
       </c>
       <c r="X85" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Y85" s="2"/>
     </row>
-    <row r="86" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C86" s="12">
         <v>2015</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E86" s="15">
         <v>26336221</v>
@@ -10314,7 +10311,7 @@
         <v>29</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="Q86" s="2">
         <v>2012</v>
@@ -10323,7 +10320,7 @@
         <v>35</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="T86" s="2" t="s">
         <v>43</v>
@@ -10340,18 +10337,18 @@
       </c>
       <c r="Y86" s="2"/>
     </row>
-    <row r="87" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C87" s="12">
         <v>2016</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E87" s="15">
         <v>26455333</v>
@@ -10390,41 +10387,41 @@
         <v>33</v>
       </c>
       <c r="Q87" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="R87" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="T87" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="S87" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="T87" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="U87" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V87" s="2"/>
       <c r="W87" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X87" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y87" s="2"/>
     </row>
-    <row r="88" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C88" s="12">
         <v>2016</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E88" s="15">
         <v>26758985</v>
@@ -10460,10 +10457,10 @@
         <v>9</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="R88" s="2" t="s">
         <v>35</v>
@@ -10480,22 +10477,22 @@
         <v>45</v>
       </c>
       <c r="X88" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Y88" s="2"/>
     </row>
-    <row r="89" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C89" s="12">
         <v>2016</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E89" s="15">
         <v>26812469</v>
@@ -10531,19 +10528,19 @@
         <v>15</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="R89" s="2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="S89" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
@@ -10553,18 +10550,18 @@
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
     </row>
-    <row r="90" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C90" s="12">
         <v>2016</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E90" s="15">
         <v>26902209</v>
@@ -10609,10 +10606,10 @@
         <v>35</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
@@ -10624,18 +10621,18 @@
       </c>
       <c r="Y90" s="2"/>
     </row>
-    <row r="91" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C91" s="12">
         <v>2016</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="E91" s="15">
         <v>27047968</v>
@@ -10674,16 +10671,16 @@
         <v>33</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="R91" s="18" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="T91" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U91" s="2" t="s">
         <v>44</v>
@@ -10693,22 +10690,22 @@
         <v>45</v>
       </c>
       <c r="X91" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y91" s="2"/>
     </row>
-    <row r="92" spans="1:25" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C92" s="12">
         <v>2016</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="E92" s="15">
         <v>27308271</v>
@@ -10747,16 +10744,16 @@
         <v>33</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="R92" s="2" t="s">
         <v>35</v>
       </c>
       <c r="S92" s="18" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="T92" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U92" s="2" t="s">
         <v>44</v>
@@ -10770,18 +10767,18 @@
       </c>
       <c r="Y92" s="2"/>
     </row>
-    <row r="93" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C93" s="12">
         <v>2016</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E93" s="15">
         <v>27378409</v>
@@ -10815,16 +10812,16 @@
       </c>
       <c r="O93" s="12"/>
       <c r="P93" s="2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="Q93" s="2">
         <v>2014</v>
       </c>
       <c r="R93" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="T93" s="2" t="s">
         <v>43</v>
@@ -10841,18 +10838,18 @@
       </c>
       <c r="Y93" s="2"/>
     </row>
-    <row r="94" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C94" s="12">
         <v>2016</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E94" s="15">
         <v>27491289</v>
@@ -10888,19 +10885,19 @@
         <v>11</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="R94" s="2" t="s">
         <v>35</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
@@ -10912,18 +10909,18 @@
       </c>
       <c r="Y94" s="2"/>
     </row>
-    <row r="95" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C95" s="12">
         <v>2016</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E95" s="15">
         <v>27880794</v>
@@ -10959,44 +10956,44 @@
         <v>14</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="R95" s="18" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="T95" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="U95" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V95" s="2"/>
       <c r="W95" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X95" s="2" t="s">
         <v>37</v>
       </c>
       <c r="Y95" s="2"/>
     </row>
-    <row r="96" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C96" s="12">
         <v>2016</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E96" s="15">
         <v>27926935</v>
@@ -11041,33 +11038,33 @@
         <v>51</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="T96" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U96" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V96" s="2"/>
       <c r="W96" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
     </row>
-    <row r="97" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C97" s="12">
         <v>2017</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="E97" s="15">
         <v>28251517</v>
@@ -11103,44 +11100,44 @@
         <v>1</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="Q97" s="2">
         <v>2004</v>
       </c>
       <c r="R97" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="U97" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V97" s="2"/>
       <c r="W97" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X97" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y97" s="2"/>
     </row>
-    <row r="98" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C98" s="12">
         <v>2017</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E98" s="15">
         <v>28433738</v>
@@ -11176,19 +11173,19 @@
         <v>27</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="Q98" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="R98" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="T98" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="U98" s="2" t="s">
         <v>44</v>
@@ -11200,18 +11197,18 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
     </row>
-    <row r="99" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C99" s="12">
         <v>2017</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="E99" s="15">
         <v>28466055</v>
@@ -11256,10 +11253,10 @@
         <v>35</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="T99" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U99" s="2" t="s">
         <v>44</v>
@@ -11273,18 +11270,18 @@
       </c>
       <c r="Y99" s="2"/>
     </row>
-    <row r="100" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C100" s="12">
         <v>2017</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E100" s="15">
         <v>28596387</v>
@@ -11320,40 +11317,40 @@
         <v>8</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
       <c r="S100" s="18" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="U100" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V100" s="2"/>
       <c r="W100" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X100" s="2" t="s">
         <v>18</v>
       </c>
       <c r="Y100" s="2"/>
     </row>
-    <row r="101" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C101" s="12">
         <v>2017</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E101" s="15">
         <v>28705183</v>
@@ -11383,50 +11380,50 @@
         <v>28</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="O101" s="12">
         <v>814</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="Q101" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="R101" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="T101" s="2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="U101" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V101" s="2"/>
       <c r="W101" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X101" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y101" s="2"/>
     </row>
-    <row r="102" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C102" s="12">
         <v>2017</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="E102" s="15">
         <v>28736753</v>
@@ -11462,17 +11459,17 @@
         <v>2</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="T102" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="U102" s="2"/>
       <c r="V102" s="2"/>
@@ -11482,18 +11479,18 @@
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
     </row>
-    <row r="103" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C103" s="12">
         <v>2017</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E103" s="15">
         <v>28827176</v>
@@ -11529,19 +11526,19 @@
         <v>30</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="R103" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="T103" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="U103" s="2" t="s">
         <v>44</v>
@@ -11555,12 +11552,12 @@
       </c>
       <c r="Y103" s="2"/>
     </row>
-    <row r="104" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C104" s="12">
         <v>2017</v>
@@ -11608,38 +11605,38 @@
         <v>2014</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="U104" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V104" s="2"/>
       <c r="W104" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X104" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y104" s="2"/>
     </row>
-    <row r="105" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C105" s="12">
         <v>2017</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E105" s="15">
         <v>28920177</v>
@@ -11675,19 +11672,19 @@
         <v>27</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="R105" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="T105" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
@@ -11699,18 +11696,18 @@
       </c>
       <c r="Y105" s="2"/>
     </row>
-    <row r="106" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C106" s="12">
         <v>2017</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E106" s="15">
         <v>29051241</v>
@@ -11746,42 +11743,42 @@
         <v>16</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="R106" s="2" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="T106" s="2"/>
       <c r="U106" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V106" s="2"/>
       <c r="W106" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X106" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y106" s="2"/>
     </row>
-    <row r="107" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C107" s="12">
         <v>2017</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E107" s="15">
         <v>29148370</v>
@@ -11823,36 +11820,36 @@
         <v>2016</v>
       </c>
       <c r="R107" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="T107" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U107" s="2"/>
       <c r="V107" s="2"/>
       <c r="W107" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X107" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Y107" s="2"/>
     </row>
-    <row r="108" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C108" s="12">
         <v>2017</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="E108" s="15">
         <v>29159319</v>
@@ -11888,7 +11885,7 @@
         <v>3</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="Q108" s="2">
         <v>2015</v>
@@ -11897,10 +11894,10 @@
         <v>35</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="T108" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="U108" s="2"/>
       <c r="V108" s="2"/>
@@ -11910,18 +11907,18 @@
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
     </row>
-    <row r="109" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C109" s="12">
         <v>2018</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E109" s="15">
         <v>29382607</v>
@@ -11963,11 +11960,11 @@
         <v>2015</v>
       </c>
       <c r="R109" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="S109" s="2"/>
       <c r="T109" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U109" s="2"/>
       <c r="V109" s="2"/>
@@ -11975,18 +11972,18 @@
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
     </row>
-    <row r="110" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C110" s="12">
         <v>2018</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="E110" s="15">
         <v>29520745</v>
@@ -12022,44 +12019,44 @@
         <v>2</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q110" s="2">
         <v>2016</v>
       </c>
       <c r="R110" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="T110" s="18" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="U110" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V110" s="2"/>
       <c r="W110" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X110" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y110" s="2"/>
     </row>
-    <row r="111" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C111" s="12">
         <v>2018</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="E111" s="15">
         <v>29524182</v>
@@ -12095,19 +12092,19 @@
         <v>18</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="Q111" s="2" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="R111" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="T111" s="2" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="U111" s="2" t="s">
         <v>44</v>
@@ -12121,18 +12118,18 @@
       </c>
       <c r="Y111" s="2"/>
     </row>
-    <row r="112" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C112" s="12">
         <v>2018</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E112" s="15">
         <v>29525552</v>
@@ -12168,44 +12165,44 @@
         <v>1</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="Q112" s="2">
         <v>2015</v>
       </c>
       <c r="R112" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="S112" s="2" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="T112" s="2" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="U112" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V112" s="2"/>
       <c r="W112" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X112" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y112" s="2"/>
     </row>
-    <row r="113" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C113" s="12">
         <v>2018</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="E113" s="15">
         <v>29584885</v>
@@ -12243,38 +12240,38 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S113" s="2" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="T113" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="U113" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V113" s="2"/>
       <c r="W113" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X113" s="2" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="Y113" s="2"/>
     </row>
-    <row r="114" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C114" s="12">
         <v>2018</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E114" s="15">
         <v>30006045</v>
@@ -12313,41 +12310,41 @@
         <v>33</v>
       </c>
       <c r="Q114" s="2" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="R114" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S114" s="2" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="T114" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="U114" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V114" s="2"/>
       <c r="W114" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="X114" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y114" s="2"/>
     </row>
-    <row r="115" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C115" s="12">
         <v>2019</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="E115" s="15">
         <v>30203691</v>
@@ -12386,16 +12383,16 @@
         <v>33</v>
       </c>
       <c r="Q115" s="2" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="R115" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S115" s="2" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="T115" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U115" s="2" t="s">
         <v>44</v>
@@ -12405,24 +12402,24 @@
         <v>45</v>
       </c>
       <c r="X115" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Y115" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="24" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C116" s="12">
         <v>2016</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E116" s="23">
         <v>30380211</v>
@@ -12458,44 +12455,44 @@
         <v>2</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="Q116" s="2">
         <v>2015</v>
       </c>
       <c r="R116" s="2" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="T116" s="2" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="U116" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V116" s="2"/>
       <c r="W116" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X116" s="2" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="Y116" s="2"/>
     </row>
-    <row r="117" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C117" s="12">
         <v>2018</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E117" s="15">
         <v>30457521</v>
@@ -12534,37 +12531,37 @@
         <v>50</v>
       </c>
       <c r="Q117" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="R117" s="2" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="S117" s="2"/>
       <c r="T117" s="2" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="U117" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V117" s="2"/>
       <c r="W117" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
     </row>
-    <row r="118" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C118" s="12">
         <v>2019</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E118" s="15">
         <v>30522982</v>
@@ -12603,39 +12600,39 @@
         <v>33</v>
       </c>
       <c r="Q118" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="R118" s="2" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="S118" s="2" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="T118" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U118" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V118" s="2"/>
       <c r="W118" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
     </row>
-    <row r="119" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C119" s="12">
         <v>2019</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E119" s="15">
         <v>31022170</v>
@@ -12674,16 +12671,16 @@
         <v>33</v>
       </c>
       <c r="Q119" s="2" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="R119" s="2" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="S119" s="2" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="T119" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U119" s="2" t="s">
         <v>44</v>
@@ -12697,18 +12694,18 @@
       </c>
       <c r="Y119" s="2"/>
     </row>
-    <row r="120" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="21" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C120" s="12">
         <v>2019</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E120" s="15">
         <v>31107219</v>
@@ -12744,16 +12741,16 @@
         <v>43</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="Q120" s="2" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="R120" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S120" s="2" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="T120" s="2" t="s">
         <v>50</v>
@@ -12768,18 +12765,18 @@
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
     </row>
-    <row r="121" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C121" s="12">
         <v>2019</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E121" s="15">
         <v>31211933</v>
@@ -12821,40 +12818,40 @@
         <v>2017</v>
       </c>
       <c r="R121" s="2" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="S121" s="2" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="T121" s="2" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="U121" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V121" s="2"/>
       <c r="W121" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="X121" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y121" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C122" s="12">
         <v>2019</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E122" s="15">
         <v>31521854</v>
@@ -12890,22 +12887,22 @@
         <v>1</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q122" s="2">
         <v>2017</v>
       </c>
       <c r="R122" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="S122" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="T122" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="U122" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V122" s="2"/>
       <c r="W122" s="2" t="s">
@@ -12914,18 +12911,18 @@
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
     </row>
-    <row r="123" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C123" s="12">
         <v>2020</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="E123" s="15">
         <v>31961043</v>
@@ -12961,17 +12958,17 @@
         <v>20</v>
       </c>
       <c r="P123" s="2" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="Q123" s="2">
         <v>2017</v>
       </c>
       <c r="R123" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S123" s="2"/>
       <c r="T123" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="U123" s="2"/>
       <c r="V123" s="2"/>
@@ -12979,18 +12976,18 @@
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
     </row>
-    <row r="124" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C124" s="12">
         <v>2020</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E124" s="15">
         <v>32187506</v>
@@ -13024,44 +13021,44 @@
       </c>
       <c r="O124" s="12"/>
       <c r="P124" s="2" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="Q124" s="2" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="R124" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S124" s="2" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="T124" s="2" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="U124" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V124" s="2"/>
       <c r="W124" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X124" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y124" s="2"/>
     </row>
-    <row r="125" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C125" s="12">
         <v>2020</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E125" s="15">
         <v>32251473</v>
@@ -13097,40 +13094,40 @@
         <v>1</v>
       </c>
       <c r="P125" s="2" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="Q125" s="2"/>
       <c r="R125" s="2"/>
       <c r="S125" s="2" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="T125" s="2" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="U125" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V125" s="2"/>
       <c r="W125" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X125" s="2" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="Y125" s="2"/>
     </row>
-    <row r="126" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C126" s="12">
         <v>2020</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E126" s="15">
         <v>32307010</v>
@@ -13166,19 +13163,19 @@
         <v>2</v>
       </c>
       <c r="P126" s="2" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="Q126" s="2" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="R126" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S126" s="2" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="T126" s="2" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="U126" s="2" t="s">
         <v>44</v>
@@ -13190,18 +13187,18 @@
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
     </row>
-    <row r="127" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C127" s="12">
         <v>2020</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E127" s="15">
         <v>32505728</v>
@@ -13237,44 +13234,44 @@
         <v>13</v>
       </c>
       <c r="P127" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q127" s="2">
         <v>2019</v>
       </c>
       <c r="R127" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="S127" s="2" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="T127" s="18" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="U127" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V127" s="2"/>
       <c r="W127" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X127" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y127" s="2"/>
     </row>
-    <row r="128" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="C128" s="12">
         <v>2020</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E128" s="15">
         <v>32598383</v>
@@ -13316,13 +13313,13 @@
         <v>2019</v>
       </c>
       <c r="R128" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S128" s="2" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="T128" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="U128" s="2" t="s">
         <v>44</v>
@@ -13336,18 +13333,18 @@
       </c>
       <c r="Y128" s="2"/>
     </row>
-    <row r="129" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C129" s="12">
         <v>2019</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E129" s="15">
         <v>32655079</v>
@@ -13392,10 +13389,10 @@
         <v>35</v>
       </c>
       <c r="S129" s="2" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="T129" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U129" s="2" t="s">
         <v>44</v>
@@ -13407,18 +13404,18 @@
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
     </row>
-    <row r="130" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C130" s="12">
         <v>2020</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E130" s="15">
         <v>32723637</v>
@@ -13448,48 +13445,48 @@
         <v>28</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="O130" s="12">
         <v>2</v>
       </c>
       <c r="P130" s="2" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="Q130" s="2" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="R130" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S130" s="2" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="T130" s="2" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="U130" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V130" s="2"/>
       <c r="W130" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
     </row>
-    <row r="131" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C131" s="12">
         <v>2021</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="E131" s="15">
         <v>32738065</v>
@@ -13525,16 +13522,16 @@
         <v>18</v>
       </c>
       <c r="P131" s="2" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="Q131" s="2">
         <v>2017</v>
       </c>
       <c r="R131" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S131" s="2" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="T131" s="2" t="s">
         <v>43</v>
@@ -13551,18 +13548,18 @@
       </c>
       <c r="Y131" s="2"/>
     </row>
-    <row r="132" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C132" s="12">
         <v>2020</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="E132" s="15">
         <v>33084573</v>
@@ -13598,42 +13595,42 @@
         <v>3</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="Q132" s="2">
         <v>2012</v>
       </c>
       <c r="R132" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S132" s="2" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="T132" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U132" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V132" s="2"/>
       <c r="W132" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
     </row>
-    <row r="133" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="C133" s="12">
         <v>2021</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="E133" s="15">
         <v>33142046</v>
@@ -13667,16 +13664,16 @@
       </c>
       <c r="O133" s="12"/>
       <c r="P133" s="2" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="Q133" s="2">
         <v>2000</v>
       </c>
       <c r="R133" s="2" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="S133" s="2" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="T133" s="2" t="s">
         <v>43</v>
@@ -13689,18 +13686,18 @@
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
     </row>
-    <row r="134" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="C134" s="12">
         <v>2020</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="E134" s="15">
         <v>33161829</v>
@@ -13742,11 +13739,11 @@
         <v>2019</v>
       </c>
       <c r="R134" s="2" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="S134" s="2"/>
       <c r="T134" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U134" s="2"/>
       <c r="V134" s="2"/>
@@ -13754,18 +13751,18 @@
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
     </row>
-    <row r="135" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C135" s="12">
         <v>2021</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E135" s="15">
         <v>33231536</v>
@@ -13801,44 +13798,44 @@
         <v>16</v>
       </c>
       <c r="P135" s="2" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="Q135" s="2" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="R135" s="2" t="s">
-        <v>66</v>
+        <v>774</v>
       </c>
       <c r="S135" s="2" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="T135" s="2" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="U135" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V135" s="2"/>
       <c r="W135" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X135" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y135" s="2"/>
     </row>
-    <row r="136" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C136" s="12">
         <v>2021</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E136" s="15">
         <v>33388553</v>
@@ -13874,16 +13871,16 @@
         <v>9</v>
       </c>
       <c r="P136" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q136" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="R136" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S136" s="2" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="T136" s="2" t="s">
         <v>50</v>
@@ -13900,18 +13897,18 @@
       </c>
       <c r="Y136" s="2"/>
     </row>
-    <row r="137" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C137" s="12">
         <v>2021</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E137" s="15">
         <v>33421655</v>
@@ -13941,42 +13938,42 @@
         <v>28</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="O137" s="12">
         <v>1</v>
       </c>
       <c r="P137" s="2" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="Q137" s="2">
         <v>2018</v>
       </c>
       <c r="R137" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="S137" s="2" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="T137" s="2" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="U137" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V137" s="2"/>
       <c r="W137" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
     </row>
-    <row r="138" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C138" s="12">
         <v>2021</v>
@@ -14012,26 +14009,26 @@
         <v>28</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="O138" s="12">
         <v>6</v>
       </c>
       <c r="P138" s="2" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="Q138" s="2">
         <v>2021</v>
       </c>
       <c r="R138" s="2"/>
       <c r="S138" s="2" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="T138" s="2" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="U138" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V138" s="2"/>
       <c r="W138" s="2" t="s">
@@ -14042,18 +14039,18 @@
       </c>
       <c r="Y138" s="2"/>
     </row>
-    <row r="139" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="C139" s="12">
         <v>2021</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E139" s="15">
         <v>33617538</v>
@@ -14083,7 +14080,7 @@
         <v>28</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="O139" s="12">
         <v>1</v>
@@ -14092,14 +14089,14 @@
         <v>33</v>
       </c>
       <c r="Q139" s="2" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S139" s="2"/>
       <c r="T139" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="U139" s="2" t="s">
         <v>44</v>
@@ -14109,22 +14106,22 @@
         <v>45</v>
       </c>
       <c r="X139" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Y139" s="2"/>
     </row>
-    <row r="140" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C140" s="12">
         <v>2021</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E140" s="15">
         <v>33672497</v>
@@ -14160,44 +14157,44 @@
         <v>5</v>
       </c>
       <c r="P140" s="2" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="Q140" s="2">
         <v>2019</v>
       </c>
       <c r="R140" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="T140" s="2" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="U140" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V140" s="2"/>
       <c r="W140" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X140" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y140" s="2"/>
     </row>
-    <row r="141" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="C141" s="12">
         <v>2021</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="E141" s="15">
         <v>33753031</v>
@@ -14233,17 +14230,17 @@
         <v>21</v>
       </c>
       <c r="P141" s="2" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="Q141" s="2" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="R141" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S141" s="2"/>
       <c r="T141" s="2" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="U141" s="2" t="s">
         <v>44</v>
@@ -14253,24 +14250,24 @@
         <v>45</v>
       </c>
       <c r="X141" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y141" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="142" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="C142" s="12">
         <v>2021</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E142" s="15">
         <v>33754998</v>
@@ -14312,36 +14309,36 @@
         <v>2018</v>
       </c>
       <c r="R142" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S142" s="2" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="T142" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U142" s="2"/>
       <c r="V142" s="2"/>
       <c r="W142" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X142" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y142" s="2"/>
     </row>
-    <row r="143" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C143" s="12">
         <v>2020</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="E143" s="15">
         <v>33954213</v>
@@ -14377,7 +14374,7 @@
         <v>1</v>
       </c>
       <c r="P143" s="2" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="Q143" s="2">
         <v>2012</v>
@@ -14386,7 +14383,7 @@
         <v>35</v>
       </c>
       <c r="S143" s="2" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="T143" s="2" t="s">
         <v>50</v>
@@ -14399,22 +14396,22 @@
         <v>45</v>
       </c>
       <c r="X143" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Y143" s="2"/>
     </row>
-    <row r="144" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C144" s="12">
         <v>2021</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E144" s="15">
         <v>34061841</v>
@@ -14450,16 +14447,16 @@
         <v>11</v>
       </c>
       <c r="P144" s="2" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="Q144" s="2" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="R144" s="2" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="S144" s="2" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="T144" s="2" t="s">
         <v>50</v>
@@ -14469,23 +14466,23 @@
       </c>
       <c r="V144" s="2"/>
       <c r="W144" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
     </row>
-    <row r="145" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="C145" s="12">
         <v>2021</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E145" s="15">
         <v>34187526</v>
@@ -14521,17 +14518,17 @@
         <v>39</v>
       </c>
       <c r="P145" s="2" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="Q145" s="2">
         <v>2018</v>
       </c>
       <c r="R145" s="2" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="S145" s="2"/>
       <c r="T145" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="U145" s="2"/>
       <c r="V145" s="2"/>
@@ -14539,12 +14536,12 @@
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
     </row>
-    <row r="146" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="C146" s="12">
         <v>2021</v>
@@ -14580,50 +14577,50 @@
         <v>28</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="O146" s="12">
         <v>20</v>
       </c>
       <c r="P146" s="2" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="Q146" s="2">
         <v>2019</v>
       </c>
       <c r="R146" s="2" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="S146" s="2" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="T146" s="2" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="U146" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V146" s="2"/>
       <c r="W146" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X146" s="2" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="Y146" s="2"/>
     </row>
-    <row r="147" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="C147" s="12">
         <v>2021</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E147" s="15">
         <v>34424177</v>
@@ -14659,42 +14656,42 @@
         <v>5</v>
       </c>
       <c r="P147" s="2" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="Q147" s="2">
         <v>2019</v>
       </c>
       <c r="R147" s="2" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="S147" s="2" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="T147" s="2" t="s">
         <v>43</v>
       </c>
       <c r="U147" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V147" s="2"/>
       <c r="W147" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
     </row>
-    <row r="148" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="C148" s="12">
         <v>2021</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E148" s="15">
         <v>34460819</v>
@@ -14730,44 +14727,44 @@
         <v>2</v>
       </c>
       <c r="P148" s="2" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="Q148" s="2">
         <v>2019</v>
       </c>
       <c r="R148" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="S148" s="2" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="T148" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U148" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V148" s="2"/>
       <c r="W148" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X148" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y148" s="2"/>
     </row>
-    <row r="149" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="C149" s="12">
         <v>2021</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E149" s="15">
         <v>34613808</v>
@@ -14797,21 +14794,21 @@
         <v>28</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="O149" s="12"/>
       <c r="P149" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q149" s="2">
         <v>2020</v>
       </c>
       <c r="R149" s="2"/>
       <c r="S149" s="2" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="T149" s="2" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="U149" s="2"/>
       <c r="V149" s="2"/>
@@ -14819,16 +14816,16 @@
         <v>45</v>
       </c>
       <c r="X149" s="2" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="Y149" s="2"/>
     </row>
-    <row r="150" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="C150" s="12">
         <v>2021</v>
@@ -14873,41 +14870,41 @@
         <v>33</v>
       </c>
       <c r="Q150" s="2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="R150" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="S150" s="2" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="T150" s="2" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="U150" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V150" s="2"/>
       <c r="W150" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X150" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y150" s="2"/>
     </row>
-    <row r="151" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="C151" s="12">
         <v>2022</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E151" s="15">
         <v>34763306</v>
@@ -14943,44 +14940,44 @@
         <v>1</v>
       </c>
       <c r="P151" s="2" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="Q151" s="2">
         <v>2015</v>
       </c>
       <c r="R151" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S151" s="2" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="T151" s="2" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="U151" s="2" t="s">
         <v>44</v>
       </c>
       <c r="V151" s="2"/>
       <c r="W151" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X151" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y151" s="2"/>
     </row>
-    <row r="152" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="C152" s="12">
         <v>2021</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E152" s="15">
         <v>35076008</v>
@@ -15016,19 +15013,19 @@
         <v>105</v>
       </c>
       <c r="P152" s="2" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="Q152" s="2" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="R152" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S152" s="2" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="T152" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="U152" s="2"/>
       <c r="V152" s="2"/>
@@ -15040,12 +15037,12 @@
       </c>
       <c r="Y152" s="2"/>
     </row>
-    <row r="153" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C153" s="14">
         <v>2022</v>
@@ -15081,23 +15078,23 @@
         <v>28</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="O153" s="12"/>
       <c r="P153" s="2" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="Q153" s="2" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="R153" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S153" s="2" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="T153" s="2" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="U153" s="2" t="s">
         <v>44</v>
@@ -15111,16 +15108,16 @@
     </row>
     <row r="154" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="C154" s="12">
         <v>2022</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="E154" s="15">
         <v>35531170</v>
@@ -15156,19 +15153,19 @@
         <v>8</v>
       </c>
       <c r="P154" s="2" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="Q154" s="2" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="R154" s="2" t="s">
-        <v>815</v>
+        <v>947</v>
       </c>
       <c r="S154" s="2" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="T154" s="2" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="U154" s="2" t="s">
         <v>44</v>
@@ -15180,18 +15177,18 @@
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
     </row>
-    <row r="155" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="C155" s="12">
         <v>2022</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E155" s="15">
         <v>35551538</v>
@@ -15227,44 +15224,44 @@
         <v>500</v>
       </c>
       <c r="P155" s="2" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="Q155" s="2" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="R155" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="S155" s="18" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="T155" s="2" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="U155" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V155" s="2"/>
       <c r="W155" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X155" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y155" s="2"/>
     </row>
-    <row r="156" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="C156" s="12">
         <v>2022</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="E156" s="15">
         <v>35789906</v>
@@ -15298,42 +15295,42 @@
       </c>
       <c r="O156" s="12"/>
       <c r="P156" s="2" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" s="2" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="S156" s="2" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="T156" s="2" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="U156" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V156" s="2"/>
       <c r="W156" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X156" s="2" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="Y156" s="2"/>
     </row>
-    <row r="157" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="C157" s="12">
         <v>2022</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="E157" s="15">
         <v>36014962</v>
@@ -15369,19 +15366,19 @@
         <v>4</v>
       </c>
       <c r="P157" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q157" s="2">
         <v>2021</v>
       </c>
       <c r="R157" s="2" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="S157" s="2" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="T157" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="U157" s="2" t="s">
         <v>44</v>
@@ -15395,18 +15392,18 @@
       </c>
       <c r="Y157" s="2"/>
     </row>
-    <row r="158" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="C158" s="12">
         <v>2022</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="E158" s="15">
         <v>36108783</v>
@@ -15436,44 +15433,44 @@
         <v>28</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="O158" s="12"/>
       <c r="P158" s="2" t="s">
         <v>40</v>
       </c>
       <c r="Q158" s="2" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="R158" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="S158" s="2"/>
       <c r="T158" s="2" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="U158" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V158" s="2"/>
       <c r="W158" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
     </row>
-    <row r="159" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C159" s="12">
         <v>2022</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="E159" s="15">
         <v>36268900</v>
@@ -15509,42 +15506,42 @@
         <v>2</v>
       </c>
       <c r="P159" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q159" s="2" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="R159" s="2" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="S159" s="2"/>
       <c r="T159" s="2" t="s">
         <v>43</v>
       </c>
       <c r="U159" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V159" s="2"/>
       <c r="W159" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X159" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Y159" s="2"/>
     </row>
-    <row r="160" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C160" s="12">
         <v>2022</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="E160" s="15">
         <v>36558837</v>
@@ -15586,36 +15583,36 @@
         <v>2018</v>
       </c>
       <c r="R160" s="2" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="S160" s="2"/>
       <c r="T160" s="2" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="U160" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V160" s="2"/>
       <c r="W160" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X160" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Y160" s="2"/>
     </row>
-    <row r="161" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C161" s="12">
         <v>2023</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E161" s="15">
         <v>36611216</v>
@@ -15649,40 +15646,40 @@
       </c>
       <c r="O161" s="12"/>
       <c r="P161" s="2" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="Q161" s="2">
         <v>2018</v>
       </c>
       <c r="R161" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="S161" s="2"/>
       <c r="T161" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="U161" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V161" s="2"/>
       <c r="W161" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
     </row>
-    <row r="162" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="C162" s="12">
         <v>2023</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E162" s="15">
         <v>36692301</v>
@@ -15721,13 +15718,13 @@
         <v>33</v>
       </c>
       <c r="Q162" s="2" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="R162" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S162" s="2" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="T162" s="18"/>
       <c r="U162" s="2"/>
@@ -15738,18 +15735,18 @@
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
     </row>
-    <row r="163" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="C163" s="12">
         <v>2023</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E163" s="15">
         <v>36734067</v>
@@ -15794,35 +15791,35 @@
         <v>41</v>
       </c>
       <c r="S163" s="2" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="T163" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U163" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V163" s="2"/>
       <c r="W163" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X163" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y163" s="2"/>
     </row>
-    <row r="164" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="C164" s="12">
         <v>2023</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E164" s="15">
         <v>36815488</v>
@@ -15864,38 +15861,38 @@
         <v>2022</v>
       </c>
       <c r="R164" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S164" s="2" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="T164" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U164" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V164" s="2"/>
       <c r="W164" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X164" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Y164" s="2"/>
     </row>
-    <row r="165" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="C165" s="12">
         <v>2023</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="E165" s="15">
         <v>37056704</v>
@@ -15931,19 +15928,19 @@
         <v>1</v>
       </c>
       <c r="P165" s="2" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="Q165" s="2" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="R165" s="2" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="S165" s="2" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="T165" s="2" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="U165" s="2" t="s">
         <v>44</v>
@@ -15955,18 +15952,18 @@
       <c r="X165" s="2"/>
       <c r="Y165" s="2"/>
     </row>
-    <row r="166" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="C166" s="12">
         <v>2023</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="E166" s="15">
         <v>37323891</v>
@@ -15996,42 +15993,42 @@
         <v>28</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="O166" s="12">
         <v>40</v>
       </c>
       <c r="P166" s="2" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="Q166" s="2" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="R166" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S166" s="2" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="T166" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U166" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V166" s="2"/>
       <c r="W166" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
     </row>
-    <row r="167" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="C167" s="12">
         <v>2023</v>
@@ -16067,19 +16064,19 @@
         <v>28</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="O167" s="12">
         <v>4</v>
       </c>
       <c r="P167" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q167" s="2">
         <v>2019</v>
       </c>
       <c r="R167" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S167" s="2"/>
       <c r="T167" s="2" t="s">
@@ -16090,17 +16087,17 @@
       </c>
       <c r="V167" s="2"/>
       <c r="W167" s="2" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
     </row>
-    <row r="168" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="C168" s="12">
         <v>2023</v>
@@ -16142,20 +16139,20 @@
         <v>8</v>
       </c>
       <c r="P168" s="2" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="Q168" s="2" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="R168" s="2" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="S168" s="2"/>
       <c r="T168" s="2" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="U168" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V168" s="2"/>
       <c r="W168" s="2" t="s">
@@ -16164,18 +16161,18 @@
       <c r="X168" s="2"/>
       <c r="Y168" s="2"/>
     </row>
-    <row r="169" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="C169" s="12">
         <v>2024</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E169" s="15">
         <v>37879367</v>
@@ -16214,33 +16211,33 @@
         <v>33</v>
       </c>
       <c r="Q169" s="2" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="R169" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S169" s="2" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="T169" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U169" s="2"/>
       <c r="V169" s="2"/>
       <c r="W169" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X169" s="2" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="Y169" s="2"/>
     </row>
-    <row r="170" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="C170" s="12">
         <v>2024</v>
@@ -16282,42 +16279,42 @@
         <v>2</v>
       </c>
       <c r="P170" s="2" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="Q170" s="2">
         <v>2022</v>
       </c>
       <c r="R170" s="2" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="S170" s="2" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="T170" s="2" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="U170" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V170" s="2"/>
       <c r="W170" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X170" s="2"/>
       <c r="Y170" s="2"/>
     </row>
-    <row r="171" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="C171" s="12">
         <v>2024</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E171" s="15">
         <v>38446223</v>
@@ -16353,42 +16350,42 @@
         <v>2</v>
       </c>
       <c r="P171" s="2" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="Q171" s="2">
         <v>2020</v>
       </c>
       <c r="R171" s="2" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="S171" s="2" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="T171" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U171" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V171" s="2"/>
       <c r="W171" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X171" s="2"/>
       <c r="Y171" s="2"/>
     </row>
-    <row r="172" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="C172" s="12">
         <v>2024</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E172" s="15">
         <v>38526059</v>
@@ -16427,39 +16424,39 @@
         <v>33</v>
       </c>
       <c r="Q172" s="2" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="R172" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="S172" s="2" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="T172" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="U172" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V172" s="2"/>
       <c r="W172" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X172" s="2"/>
       <c r="Y172" s="2"/>
     </row>
-    <row r="173" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="C173" s="12">
         <v>2024</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E173" s="15">
         <v>39065234</v>
@@ -16495,42 +16492,42 @@
         <v>1</v>
       </c>
       <c r="P173" s="2" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="Q173" s="2">
         <v>2021</v>
       </c>
       <c r="R173" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S173" s="2" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="T173" s="2" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="U173" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V173" s="2"/>
       <c r="W173" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X173" s="2"/>
       <c r="Y173" s="2"/>
     </row>
-    <row r="174" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="C174" s="12">
         <v>2024</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="E174" s="15">
         <v>39147851</v>
@@ -16572,36 +16569,36 @@
         <v>2021</v>
       </c>
       <c r="R174" s="2" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="S174" s="2" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="T174" s="2" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="U174" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V174" s="2"/>
       <c r="W174" s="2" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
     </row>
-    <row r="175" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="C175" s="15">
         <v>2002</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="E175" s="23">
         <v>12173427</v>
@@ -16637,19 +16634,19 @@
         <v>18</v>
       </c>
       <c r="P175" s="15" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="Q175" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="R175" s="15" t="s">
+        <v>908</v>
+      </c>
+      <c r="S175" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="R175" s="15" t="s">
-        <v>915</v>
-      </c>
-      <c r="S175" s="15" t="s">
-        <v>122</v>
-      </c>
       <c r="T175" s="15" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="U175" s="15" t="s">
         <v>44</v>
@@ -16662,21 +16659,21 @@
       </c>
       <c r="X175" s="17"/>
       <c r="Y175" s="17" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="176" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="C176" s="15">
         <v>2014</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E176" s="20">
         <v>25845138</v>
@@ -16718,38 +16715,38 @@
         <v>2011</v>
       </c>
       <c r="R176" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="S176" s="15" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="T176" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="U176" s="15" t="s">
         <v>44</v>
       </c>
       <c r="V176" s="15"/>
       <c r="W176" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X176" s="17"/>
       <c r="Y176" s="17" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="177" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="15" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="C177" s="15">
         <v>2014</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="E177" s="20">
         <v>25335413</v>
@@ -16789,38 +16786,38 @@
       </c>
       <c r="Q177" s="15"/>
       <c r="R177" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="S177" s="15" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="T177" s="15" t="s">
         <v>40</v>
       </c>
       <c r="U177" s="15" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="V177" s="15"/>
       <c r="W177" s="15" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="X177" s="17"/>
       <c r="Y177" s="17" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="178" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="15" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="C178" s="15">
         <v>2013</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E178" s="20">
         <v>24364143</v>
@@ -16856,16 +16853,16 @@
         <v>12</v>
       </c>
       <c r="P178" s="15" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="Q178" s="15">
         <v>2009</v>
       </c>
       <c r="R178" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="S178" s="15" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="T178" s="15" t="s">
         <v>40</v>
@@ -16879,21 +16876,21 @@
       </c>
       <c r="X178" s="17"/>
       <c r="Y178" s="17" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="179" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="15" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="C179" s="15">
         <v>2005</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="E179" s="20">
         <v>16415986</v>
@@ -16929,19 +16926,19 @@
         <v>17</v>
       </c>
       <c r="P179" s="15" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="Q179" s="15" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="R179" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S179" s="15" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="T179" s="15" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="U179" s="15" t="s">
         <v>44</v>
@@ -16954,21 +16951,21 @@
       </c>
       <c r="X179" s="17"/>
       <c r="Y179" s="17" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="180" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="15" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="C180" s="15">
         <v>2001</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="E180" s="20">
         <v>11436635</v>
@@ -17004,14 +17001,14 @@
         <v>3</v>
       </c>
       <c r="P180" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q180" s="15"/>
       <c r="R180" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S180" s="15" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="T180" s="15"/>
       <c r="U180" s="15" t="s">
@@ -17021,25 +17018,25 @@
         <v>30</v>
       </c>
       <c r="W180" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X180" s="17"/>
       <c r="Y180" s="17" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="181" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="15" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="C181" s="15">
         <v>2002</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="E181" s="20">
         <v>12667358</v>
@@ -17075,13 +17072,13 @@
         <v>5</v>
       </c>
       <c r="P181" s="15" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="Q181" s="15" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="R181" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S181" s="15"/>
       <c r="T181" s="15"/>
@@ -17096,21 +17093,21 @@
       </c>
       <c r="X181" s="17"/>
       <c r="Y181" s="17" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="182" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="15" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="C182" s="15">
         <v>2006</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="E182" s="20">
         <v>17415983</v>
@@ -17146,17 +17143,17 @@
         <v>36</v>
       </c>
       <c r="P182" s="15" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="Q182" s="15" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="R182" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S182" s="15"/>
       <c r="T182" s="15" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="U182" s="15" t="s">
         <v>44</v>
@@ -17169,11 +17166,23 @@
       </c>
       <c r="X182" s="17"/>
       <c r="Y182" s="17" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y182" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Y182" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="17">
+      <filters>
+        <filter val="Afghanistan"/>
+        <filter val="Albania,Russia, China, Central Assia, Iran, Iraq, Africa,Pakista, Afghanistan, Kosovo,Greece"/>
+        <filter val="Greece, Senegal, Mauritania, China, Russia, Nigeria, Pakistan, Oman, South Africa, Turkey, Republic of the Congo"/>
+        <filter val="Iran and Turkey"/>
+        <filter val="Kenya, Ethiopia, Sudan, Somalia"/>
+        <filter val="Pakistan and Afghanistan"/>
+        <filter val="Pakistan, Afghanistan"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Pubmed/CCHF/ReferenceSummary_Feb25.xlsx
+++ b/Pubmed/CCHF/ReferenceSummary_Feb25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindazhou/Dropbox/___SystematicReviewsAI/CCHF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindazhou/Desktop/HIV/GenBankRefs/Pubmed/CCHF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24569CF-D543-8543-BDB8-D310382346B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A455F3B-D83E-D540-8750-AB1EF63B4C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="1220" windowWidth="34260" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="947">
   <si>
     <t>Title</t>
   </si>
@@ -1073,9 +1073,6 @@
     <t>Grard G; Drexler JF; Fair J; Muyembe JJ; Wolfe ND; Drosten C; Leroy EM</t>
   </si>
   <si>
-    <t>DRC</t>
-  </si>
-  <si>
     <t>Segment S: HQ849545
 Segment M: HQ849546</t>
   </si>
@@ -1158,9 +1155,6 @@
     <t>sheep</t>
   </si>
   <si>
-    <t>Iran and Turkey</t>
-  </si>
-  <si>
     <t>HM853679, HM853680, HM853681, and HM853682</t>
   </si>
   <si>
@@ -1174,9 +1168,6 @@
   </si>
   <si>
     <t>Ticks from bird</t>
-  </si>
-  <si>
-    <t>Capri, Italy, and Antikythira, Greece</t>
   </si>
   <si>
     <t>Genetic characterization and molecular clock analyses of the Crimean-Congo hemorrhagic fever virus from human and ticks in India, 2010-2011.</t>
@@ -3199,9 +3190,6 @@
     <t>Vero cell</t>
   </si>
   <si>
-    <t>Balkan Peninsula</t>
-  </si>
-  <si>
     <t>PRJEB46591</t>
   </si>
   <si>
@@ -3577,22 +3565,31 @@
     <t>1988, 1978, 1975, 1970, 1979</t>
   </si>
   <si>
-    <t>Burkina Faso, Central Africa Republic, China, Greece, Iraq, Mauritiania, Oman, Pakistan, Congo, Russia, Senegal, Tajikistan</t>
-  </si>
-  <si>
-    <t>Greece, Senegal, Mauritania, China, Russia, Nigeria, Pakistan, Oman, South Africa, Turkey, Republic of the Congo</t>
-  </si>
-  <si>
     <t>Somalia, United Arab Emirates</t>
   </si>
   <si>
-    <t>Albania, Russia,  China,  Central Assia,  Iran,  Iraq,  Africa, Pakista, Afghanistan,  Kosovo, Greece</t>
-  </si>
-  <si>
     <t>Pakistan,  Afghanistan</t>
   </si>
   <si>
     <t>Kenya,  Ethiopia,  Sudan,  Somalia</t>
+  </si>
+  <si>
+    <t>Albania, Russia,  China,  Central Assia,  Iran,  Iraq,  Africa, Pakistan, Afghanistan,  Kosovo, Greece</t>
+  </si>
+  <si>
+    <t>Burkina Faso, Central African Republic, China, Greece, Iraq, Mauritiania, Oman, Pakistan, Congo, Russia, Senegal, Tajikistan</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Greece, Senegal, Mauritania, China, Russia, Nigeria, Pakistan, Oman, South Africa, Turkey, Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Italy, Greece</t>
+  </si>
+  <si>
+    <t>Iran, Turkey</t>
   </si>
 </sst>
 </file>
@@ -4124,14 +4121,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AW182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="117" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R34" sqref="R34"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R58" sqref="R58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4240,7 +4237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -4305,7 +4302,7 @@
       </c>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -4376,7 +4373,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
@@ -4445,7 +4442,7 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>55</v>
       </c>
@@ -4520,7 +4517,7 @@
       </c>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
@@ -4573,7 +4570,7 @@
         <v>1993</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2" t="s">
@@ -4585,7 +4582,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>67</v>
       </c>
@@ -4638,7 +4635,7 @@
         <v>70</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>71</v>
@@ -4656,7 +4653,7 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>73</v>
       </c>
@@ -4729,7 +4726,7 @@
       </c>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>82</v>
       </c>
@@ -4800,7 +4797,7 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>88</v>
       </c>
@@ -4871,7 +4868,7 @@
       </c>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>93</v>
       </c>
@@ -4938,7 +4935,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>100</v>
       </c>
@@ -5035,7 +5032,7 @@
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
     </row>
-    <row r="13" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>104</v>
       </c>
@@ -5108,7 +5105,7 @@
       </c>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>109</v>
       </c>
@@ -5181,7 +5178,7 @@
       </c>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:49" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>115</v>
       </c>
@@ -5254,7 +5251,7 @@
       </c>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>122</v>
       </c>
@@ -5323,7 +5320,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="1:49" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:49" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>129</v>
       </c>
@@ -5396,7 +5393,7 @@
       </c>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>136</v>
       </c>
@@ -5463,7 +5460,7 @@
       </c>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>142</v>
       </c>
@@ -5536,7 +5533,7 @@
       </c>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>149</v>
       </c>
@@ -5609,7 +5606,7 @@
       </c>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>153</v>
       </c>
@@ -5682,7 +5679,7 @@
       </c>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>157</v>
       </c>
@@ -5755,7 +5752,7 @@
       </c>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>165</v>
       </c>
@@ -5824,7 +5821,7 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>171</v>
       </c>
@@ -5897,7 +5894,7 @@
       </c>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>176</v>
       </c>
@@ -5966,7 +5963,7 @@
       </c>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>182</v>
       </c>
@@ -6037,7 +6034,7 @@
       </c>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>185</v>
       </c>
@@ -6102,7 +6099,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>190</v>
       </c>
@@ -6171,7 +6168,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>196</v>
       </c>
@@ -6244,7 +6241,7 @@
       </c>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
         <v>202</v>
       </c>
@@ -6313,7 +6310,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>209</v>
       </c>
@@ -6410,7 +6407,7 @@
       <c r="AV31" s="1"/>
       <c r="AW31" s="1"/>
     </row>
-    <row r="32" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>217</v>
       </c>
@@ -6483,7 +6480,7 @@
       </c>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>223</v>
       </c>
@@ -6609,7 +6606,7 @@
         <v>230</v>
       </c>
       <c r="R34" s="18" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>231</v>
@@ -6629,7 +6626,7 @@
       </c>
       <c r="Y34" s="2"/>
     </row>
-    <row r="35" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>233</v>
       </c>
@@ -6702,7 +6699,7 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
     </row>
-    <row r="36" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>238</v>
       </c>
@@ -6775,7 +6772,7 @@
       </c>
       <c r="Y36" s="2"/>
     </row>
-    <row r="37" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>242</v>
       </c>
@@ -6846,7 +6843,7 @@
       </c>
       <c r="Y37" s="2"/>
     </row>
-    <row r="38" spans="1:25" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>246</v>
       </c>
@@ -6921,7 +6918,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>252</v>
       </c>
@@ -6992,7 +6989,7 @@
       </c>
       <c r="Y39" s="2"/>
     </row>
-    <row r="40" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>256</v>
       </c>
@@ -7065,7 +7062,7 @@
       </c>
       <c r="Y40" s="2"/>
     </row>
-    <row r="41" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>260</v>
       </c>
@@ -7136,7 +7133,7 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
     </row>
-    <row r="42" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>266</v>
       </c>
@@ -7207,7 +7204,7 @@
       </c>
       <c r="Y42" s="2"/>
     </row>
-    <row r="43" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>271</v>
       </c>
@@ -7276,7 +7273,7 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
     </row>
-    <row r="44" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>276</v>
       </c>
@@ -7351,7 +7348,7 @@
       </c>
       <c r="Y44" s="2"/>
     </row>
-    <row r="45" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>280</v>
       </c>
@@ -7420,7 +7417,7 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
     </row>
-    <row r="46" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>285</v>
       </c>
@@ -7493,7 +7490,7 @@
       </c>
       <c r="Y46" s="2"/>
     </row>
-    <row r="47" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>290</v>
       </c>
@@ -7566,7 +7563,7 @@
       </c>
       <c r="Y47" s="2"/>
     </row>
-    <row r="48" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>297</v>
       </c>
@@ -7708,7 +7705,7 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
     </row>
-    <row r="50" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>308</v>
       </c>
@@ -7777,7 +7774,7 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
     </row>
-    <row r="51" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>313</v>
       </c>
@@ -7840,7 +7837,7 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
     </row>
-    <row r="52" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>318</v>
       </c>
@@ -7909,7 +7906,7 @@
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
     </row>
-    <row r="53" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>323</v>
       </c>
@@ -7978,7 +7975,7 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
     </row>
-    <row r="54" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>329</v>
       </c>
@@ -8047,7 +8044,7 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
     </row>
-    <row r="55" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>332</v>
       </c>
@@ -8100,10 +8097,10 @@
         <v>2008</v>
       </c>
       <c r="R55" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="S55" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="S55" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="T55" s="2" t="s">
         <v>66</v>
@@ -8116,12 +8113,12 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
     </row>
-    <row r="56" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="C56" s="12">
         <v>2012</v>
@@ -8163,7 +8160,7 @@
         <v>4</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q56" s="2">
         <v>2008</v>
@@ -8205,12 +8202,12 @@
       <c r="AV56" s="1"/>
       <c r="AW56" s="1"/>
     </row>
-    <row r="57" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="C57" s="12">
         <v>2012</v>
@@ -8255,13 +8252,13 @@
         <v>33</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R57" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="T57" s="2" t="s">
         <v>66</v>
@@ -8278,12 +8275,12 @@
       </c>
       <c r="Y57" s="2"/>
     </row>
-    <row r="58" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="C58" s="12">
         <v>2012</v>
@@ -8325,16 +8322,16 @@
         <v>6</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q58" s="2">
         <v>2009</v>
       </c>
       <c r="R58" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="S58" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="S58" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="T58" s="2" t="s">
         <v>43</v>
@@ -8349,12 +8346,12 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
     </row>
-    <row r="59" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="C59" s="12">
         <v>2012</v>
@@ -8396,16 +8393,16 @@
         <v>1</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q59" s="2">
         <v>2010</v>
       </c>
       <c r="R59" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="S59" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="T59" s="2" t="s">
         <v>43</v>
@@ -8420,12 +8417,12 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
     </row>
-    <row r="60" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="C60" s="12">
         <v>2012</v>
@@ -8467,17 +8464,17 @@
         <v>7</v>
       </c>
       <c r="P60" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q60" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="Q60" s="2" t="s">
+      <c r="R60" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="R60" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="S60" s="2"/>
       <c r="T60" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="U60" s="2" t="s">
         <v>44</v>
@@ -8491,10 +8488,10 @@
     </row>
     <row r="61" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="C61" s="12">
         <v>2012</v>
@@ -8536,19 +8533,19 @@
         <v>4</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q61" s="2">
         <v>2010</v>
       </c>
       <c r="R61" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="T61" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="S61" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="T61" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
@@ -8560,12 +8557,12 @@
       </c>
       <c r="Y61" s="2"/>
     </row>
-    <row r="62" spans="1:49" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C62" s="12">
         <v>2012</v>
@@ -8607,13 +8604,13 @@
         <v>3</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Q62" s="2">
         <v>2009</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>368</v>
+        <v>945</v>
       </c>
       <c r="S62" s="2"/>
       <c r="T62" s="2" t="s">
@@ -8627,18 +8624,18 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
     </row>
-    <row r="63" spans="1:49" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C63" s="12">
         <v>2013</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E63" s="15">
         <v>23195573</v>
@@ -8677,16 +8674,16 @@
         <v>76</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S63" s="18" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="U63" s="2" t="s">
         <v>44</v>
@@ -8702,10 +8699,10 @@
     </row>
     <row r="64" spans="1:49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C64" s="12">
         <v>2012</v>
@@ -8756,7 +8753,7 @@
         <v>305</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="T64" s="2" t="s">
         <v>66</v>
@@ -8773,12 +8770,12 @@
       </c>
       <c r="Y64" s="2"/>
     </row>
-    <row r="65" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C65" s="12">
         <v>2013</v>
@@ -8829,7 +8826,7 @@
         <v>35</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="T65" s="2" t="s">
         <v>66</v>
@@ -8842,16 +8839,16 @@
         <v>45</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Y65" s="2"/>
     </row>
     <row r="66" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C66" s="12">
         <v>2013</v>
@@ -8899,10 +8896,10 @@
         <v>2008</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="T66" s="2" t="s">
         <v>87</v>
@@ -8919,16 +8916,16 @@
     </row>
     <row r="67" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C67" s="12">
         <v>2013</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E67" s="15">
         <v>23682136</v>
@@ -8971,7 +8968,7 @@
         <v>305</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="T67" s="2" t="s">
         <v>66</v>
@@ -8988,12 +8985,12 @@
       </c>
       <c r="Y67" s="2"/>
     </row>
-    <row r="68" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C68" s="12">
         <v>2013</v>
@@ -9055,16 +9052,16 @@
         <v>45</v>
       </c>
       <c r="X68" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Y68" s="2"/>
     </row>
-    <row r="69" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C69" s="12">
         <v>2013</v>
@@ -9115,7 +9112,7 @@
         <v>180</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="T69" s="2" t="s">
         <v>87</v>
@@ -9132,12 +9129,12 @@
       </c>
       <c r="Y69" s="2"/>
     </row>
-    <row r="70" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C70" s="12">
         <v>2013</v>
@@ -9184,7 +9181,7 @@
         <v>78</v>
       </c>
       <c r="S70" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
@@ -9195,18 +9192,18 @@
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
     </row>
-    <row r="71" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C71" s="12">
         <v>2013</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E71" s="15">
         <v>23908296</v>
@@ -9242,19 +9239,19 @@
         <v>2</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="R71" s="2" t="s">
         <v>78</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="U71" s="2" t="s">
         <v>44</v>
@@ -9270,16 +9267,16 @@
     </row>
     <row r="72" spans="1:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C72" s="12">
         <v>2013</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E72" s="15">
         <v>24223988</v>
@@ -9318,16 +9315,16 @@
         <v>33</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="R72" s="18" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="U72" s="2" t="s">
         <v>44</v>
@@ -9337,16 +9334,16 @@
         <v>45</v>
       </c>
       <c r="X72" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Y72" s="2"/>
     </row>
-    <row r="73" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C73" s="12">
         <v>2014</v>
@@ -9391,13 +9388,13 @@
         <v>33</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="R73" s="2" t="s">
         <v>85</v>
       </c>
       <c r="S73" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="T73" s="2" t="s">
         <v>87</v>
@@ -9414,18 +9411,18 @@
       </c>
       <c r="Y73" s="2"/>
     </row>
-    <row r="74" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C74" s="12">
         <v>2014</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E74" s="15">
         <v>24618184</v>
@@ -9461,16 +9458,16 @@
         <v>22</v>
       </c>
       <c r="P74" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="S74" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="Q74" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="R74" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="S74" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="T74" s="2" t="s">
         <v>254</v>
@@ -9481,12 +9478,12 @@
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
     </row>
-    <row r="75" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C75" s="12">
         <v>2014</v>
@@ -9531,13 +9528,13 @@
         <v>254</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="R75" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="T75" s="2" t="s">
         <v>254</v>
@@ -9548,16 +9545,16 @@
         <v>164</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Y75" s="2"/>
     </row>
-    <row r="76" spans="1:25" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C76" s="12">
         <v>2014</v>
@@ -9599,22 +9596,22 @@
         <v>10</v>
       </c>
       <c r="P76" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="R76" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="S76" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="Q76" s="2" t="s">
+      <c r="T76" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="R76" s="18" t="s">
+      <c r="U76" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="S76" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="T76" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="U76" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="V76" s="2"/>
       <c r="W76" s="2" t="s">
@@ -9625,18 +9622,18 @@
       </c>
       <c r="Y76" s="2"/>
     </row>
-    <row r="77" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C77" s="12">
         <v>2014</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E77" s="15">
         <v>24953797</v>
@@ -9672,7 +9669,7 @@
         <v>1</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Q77" s="2">
         <v>2012</v>
@@ -9681,7 +9678,7 @@
         <v>274</v>
       </c>
       <c r="S77" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="T77" s="2" t="s">
         <v>43</v>
@@ -9698,12 +9695,12 @@
       </c>
       <c r="Y77" s="2"/>
     </row>
-    <row r="78" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C78" s="12">
         <v>2014</v>
@@ -9748,13 +9745,13 @@
         <v>254</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="R78" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S78" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="T78" s="2" t="s">
         <v>254</v>
@@ -9771,12 +9768,12 @@
       </c>
       <c r="Y78" s="2"/>
     </row>
-    <row r="79" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C79" s="12">
         <v>2014</v>
@@ -9827,7 +9824,7 @@
         <v>168</v>
       </c>
       <c r="S79" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="T79" s="2" t="s">
         <v>66</v>
@@ -9840,12 +9837,12 @@
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
     </row>
-    <row r="80" spans="1:25" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C80" s="12">
         <v>2014</v>
@@ -9887,7 +9884,7 @@
         <v>40</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="Q80" s="2">
         <v>2012</v>
@@ -9896,10 +9893,10 @@
         <v>85</v>
       </c>
       <c r="S80" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="T80" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>44</v>
@@ -9913,18 +9910,18 @@
       </c>
       <c r="Y80" s="2"/>
     </row>
-    <row r="81" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C81" s="12">
         <v>2014</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E81" s="15">
         <v>25393542</v>
@@ -9960,17 +9957,17 @@
         <v>3</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="R81" s="2" t="s">
         <v>85</v>
       </c>
       <c r="S81" s="2"/>
       <c r="T81" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="U81" s="2" t="s">
         <v>44</v>
@@ -9982,12 +9979,12 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
     </row>
-    <row r="82" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C82" s="12">
         <v>2015</v>
@@ -10032,13 +10029,13 @@
         <v>33</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="R82" s="2" t="s">
         <v>168</v>
       </c>
       <c r="S82" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="T82" s="2" t="s">
         <v>279</v>
@@ -10051,12 +10048,12 @@
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
     </row>
-    <row r="83" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C83" s="12">
         <v>2015</v>
@@ -10107,7 +10104,7 @@
         <v>35</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="T83" s="2" t="s">
         <v>66</v>
@@ -10120,12 +10117,12 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
     </row>
-    <row r="84" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C84" s="12">
         <v>2015</v>
@@ -10167,7 +10164,7 @@
         <v>4</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Q84" s="2">
         <v>2013</v>
@@ -10176,7 +10173,7 @@
         <v>35</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="T84" s="2" t="s">
         <v>50</v>
@@ -10195,10 +10192,10 @@
     </row>
     <row r="85" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C85" s="12">
         <v>2015</v>
@@ -10246,7 +10243,7 @@
         <v>2011</v>
       </c>
       <c r="R85" s="2" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="S85" s="2"/>
       <c r="T85" s="2" t="s">
@@ -10260,22 +10257,22 @@
         <v>45</v>
       </c>
       <c r="X85" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Y85" s="2"/>
     </row>
-    <row r="86" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C86" s="12">
         <v>2015</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E86" s="15">
         <v>26336221</v>
@@ -10311,7 +10308,7 @@
         <v>29</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="Q86" s="2">
         <v>2012</v>
@@ -10320,7 +10317,7 @@
         <v>35</v>
       </c>
       <c r="S86" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="T86" s="2" t="s">
         <v>43</v>
@@ -10337,12 +10334,12 @@
       </c>
       <c r="Y86" s="2"/>
     </row>
-    <row r="87" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C87" s="12">
         <v>2016</v>
@@ -10387,13 +10384,13 @@
         <v>33</v>
       </c>
       <c r="Q87" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="R87" s="2" t="s">
         <v>168</v>
       </c>
       <c r="S87" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="T87" s="2" t="s">
         <v>170</v>
@@ -10410,18 +10407,18 @@
       </c>
       <c r="Y87" s="2"/>
     </row>
-    <row r="88" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C88" s="12">
         <v>2016</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E88" s="15">
         <v>26758985</v>
@@ -10457,10 +10454,10 @@
         <v>9</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="R88" s="2" t="s">
         <v>35</v>
@@ -10477,16 +10474,16 @@
         <v>45</v>
       </c>
       <c r="X88" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Y88" s="2"/>
     </row>
-    <row r="89" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C89" s="12">
         <v>2016</v>
@@ -10528,16 +10525,16 @@
         <v>15</v>
       </c>
       <c r="P89" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="S89" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="Q89" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="R89" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="S89" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="T89" s="2" t="s">
         <v>254</v>
@@ -10550,12 +10547,12 @@
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
     </row>
-    <row r="90" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C90" s="12">
         <v>2016</v>
@@ -10606,7 +10603,7 @@
         <v>35</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="T90" s="2" t="s">
         <v>66</v>
@@ -10621,18 +10618,18 @@
       </c>
       <c r="Y90" s="2"/>
     </row>
-    <row r="91" spans="1:25" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C91" s="12">
         <v>2016</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E91" s="15">
         <v>27047968</v>
@@ -10671,13 +10668,13 @@
         <v>33</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="R91" s="18" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="T91" s="2" t="s">
         <v>87</v>
@@ -10694,18 +10691,18 @@
       </c>
       <c r="Y91" s="2"/>
     </row>
-    <row r="92" spans="1:25" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C92" s="12">
         <v>2016</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E92" s="15">
         <v>27308271</v>
@@ -10744,13 +10741,13 @@
         <v>33</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="R92" s="2" t="s">
         <v>35</v>
       </c>
       <c r="S92" s="18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="T92" s="2" t="s">
         <v>66</v>
@@ -10767,18 +10764,18 @@
       </c>
       <c r="Y92" s="2"/>
     </row>
-    <row r="93" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C93" s="12">
         <v>2016</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E93" s="15">
         <v>27378409</v>
@@ -10812,7 +10809,7 @@
       </c>
       <c r="O93" s="12"/>
       <c r="P93" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q93" s="2">
         <v>2014</v>
@@ -10821,7 +10818,7 @@
         <v>168</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="T93" s="2" t="s">
         <v>43</v>
@@ -10838,18 +10835,18 @@
       </c>
       <c r="Y93" s="2"/>
     </row>
-    <row r="94" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C94" s="12">
         <v>2016</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E94" s="15">
         <v>27491289</v>
@@ -10885,19 +10882,19 @@
         <v>11</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="R94" s="2" t="s">
         <v>35</v>
       </c>
       <c r="S94" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="T94" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
@@ -10909,18 +10906,18 @@
       </c>
       <c r="Y94" s="2"/>
     </row>
-    <row r="95" spans="1:25" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C95" s="12">
         <v>2016</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E95" s="15">
         <v>27880794</v>
@@ -10956,19 +10953,19 @@
         <v>14</v>
       </c>
       <c r="P95" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q95" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="R95" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="S95" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="Q95" s="2" t="s">
+      <c r="T95" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="R95" s="18" t="s">
-        <v>517</v>
-      </c>
-      <c r="S95" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="T95" s="2" t="s">
-        <v>519</v>
       </c>
       <c r="U95" s="2" t="s">
         <v>44</v>
@@ -10982,12 +10979,12 @@
       </c>
       <c r="Y95" s="2"/>
     </row>
-    <row r="96" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C96" s="12">
         <v>2016</v>
@@ -11038,13 +11035,13 @@
         <v>51</v>
       </c>
       <c r="S96" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="T96" s="2" t="s">
         <v>66</v>
       </c>
       <c r="U96" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V96" s="2"/>
       <c r="W96" s="2" t="s">
@@ -11053,18 +11050,18 @@
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
     </row>
-    <row r="97" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C97" s="12">
         <v>2017</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E97" s="15">
         <v>28251517</v>
@@ -11100,7 +11097,7 @@
         <v>1</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="Q97" s="2">
         <v>2004</v>
@@ -11109,10 +11106,10 @@
         <v>78</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="T97" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="U97" s="2" t="s">
         <v>44</v>
@@ -11126,18 +11123,18 @@
       </c>
       <c r="Y97" s="2"/>
     </row>
-    <row r="98" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C98" s="12">
         <v>2017</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E98" s="15">
         <v>28433738</v>
@@ -11173,16 +11170,16 @@
         <v>27</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="Q98" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="R98" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="T98" s="2" t="s">
         <v>301</v>
@@ -11197,18 +11194,18 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
     </row>
-    <row r="99" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C99" s="12">
         <v>2017</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E99" s="15">
         <v>28466055</v>
@@ -11253,7 +11250,7 @@
         <v>35</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="T99" s="2" t="s">
         <v>87</v>
@@ -11270,18 +11267,18 @@
       </c>
       <c r="Y99" s="2"/>
     </row>
-    <row r="100" spans="1:25" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C100" s="12">
         <v>2017</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E100" s="15">
         <v>28596387</v>
@@ -11317,18 +11314,18 @@
         <v>8</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
       <c r="S100" s="18" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="U100" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V100" s="2"/>
       <c r="W100" s="2" t="s">
@@ -11339,18 +11336,18 @@
       </c>
       <c r="Y100" s="2"/>
     </row>
-    <row r="101" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C101" s="12">
         <v>2017</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E101" s="15">
         <v>28705183</v>
@@ -11380,28 +11377,28 @@
         <v>28</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="O101" s="12">
         <v>814</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="Q101" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="R101" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="T101" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="U101" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V101" s="2"/>
       <c r="W101" s="2" t="s">
@@ -11412,18 +11409,18 @@
       </c>
       <c r="Y101" s="2"/>
     </row>
-    <row r="102" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C102" s="12">
         <v>2017</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E102" s="15">
         <v>28736753</v>
@@ -11459,14 +11456,14 @@
         <v>2</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" s="2" t="s">
         <v>274</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="T102" s="2" t="s">
         <v>254</v>
@@ -11479,18 +11476,18 @@
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
     </row>
-    <row r="103" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C103" s="12">
         <v>2017</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E103" s="15">
         <v>28827176</v>
@@ -11526,16 +11523,16 @@
         <v>30</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="Q103" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="R103" s="2" t="s">
         <v>107</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="T103" s="2" t="s">
         <v>237</v>
@@ -11552,12 +11549,12 @@
       </c>
       <c r="Y103" s="2"/>
     </row>
-    <row r="104" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C104" s="12">
         <v>2017</v>
@@ -11605,13 +11602,13 @@
         <v>2014</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="T104" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="U104" s="2" t="s">
         <v>44</v>
@@ -11625,18 +11622,18 @@
       </c>
       <c r="Y104" s="2"/>
     </row>
-    <row r="105" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C105" s="12">
         <v>2017</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E105" s="15">
         <v>28920177</v>
@@ -11672,19 +11669,19 @@
         <v>27</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="Q105" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="R105" s="2" t="s">
         <v>274</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="T105" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
@@ -11696,18 +11693,18 @@
       </c>
       <c r="Y105" s="2"/>
     </row>
-    <row r="106" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C106" s="12">
         <v>2017</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E106" s="15">
         <v>29051241</v>
@@ -11746,17 +11743,17 @@
         <v>76</v>
       </c>
       <c r="Q106" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="R106" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="T106" s="2"/>
       <c r="U106" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V106" s="2"/>
       <c r="W106" s="2" t="s">
@@ -11767,12 +11764,12 @@
       </c>
       <c r="Y106" s="2"/>
     </row>
-    <row r="107" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C107" s="12">
         <v>2017</v>
@@ -11820,10 +11817,10 @@
         <v>2016</v>
       </c>
       <c r="R107" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="T107" s="2" t="s">
         <v>87</v>
@@ -11834,22 +11831,22 @@
         <v>164</v>
       </c>
       <c r="X107" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Y107" s="2"/>
     </row>
-    <row r="108" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C108" s="12">
         <v>2017</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E108" s="15">
         <v>29159319</v>
@@ -11885,7 +11882,7 @@
         <v>3</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="Q108" s="2">
         <v>2015</v>
@@ -11894,7 +11891,7 @@
         <v>35</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="T108" s="2" t="s">
         <v>254</v>
@@ -11907,12 +11904,12 @@
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
     </row>
-    <row r="109" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C109" s="12">
         <v>2018</v>
@@ -11960,7 +11957,7 @@
         <v>2015</v>
       </c>
       <c r="R109" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="S109" s="2"/>
       <c r="T109" s="2" t="s">
@@ -11972,18 +11969,18 @@
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
     </row>
-    <row r="110" spans="1:25" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C110" s="12">
         <v>2018</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E110" s="15">
         <v>29520745</v>
@@ -12028,13 +12025,13 @@
         <v>78</v>
       </c>
       <c r="S110" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="T110" s="18" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="U110" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V110" s="2"/>
       <c r="W110" s="2" t="s">
@@ -12045,18 +12042,18 @@
       </c>
       <c r="Y110" s="2"/>
     </row>
-    <row r="111" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C111" s="12">
         <v>2018</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E111" s="15">
         <v>29524182</v>
@@ -12092,19 +12089,19 @@
         <v>18</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="Q111" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="R111" s="2" t="s">
         <v>78</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="T111" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="U111" s="2" t="s">
         <v>44</v>
@@ -12118,18 +12115,18 @@
       </c>
       <c r="Y111" s="2"/>
     </row>
-    <row r="112" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C112" s="12">
         <v>2018</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E112" s="15">
         <v>29525552</v>
@@ -12165,7 +12162,7 @@
         <v>1</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="Q112" s="2">
         <v>2015</v>
@@ -12174,13 +12171,13 @@
         <v>274</v>
       </c>
       <c r="S112" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="T112" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="U112" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V112" s="2"/>
       <c r="W112" s="2" t="s">
@@ -12191,18 +12188,18 @@
       </c>
       <c r="Y112" s="2"/>
     </row>
-    <row r="113" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C113" s="12">
         <v>2018</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E113" s="15">
         <v>29584885</v>
@@ -12240,38 +12237,38 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S113" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="T113" s="2" t="s">
         <v>284</v>
       </c>
       <c r="U113" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V113" s="2"/>
       <c r="W113" s="2" t="s">
         <v>164</v>
       </c>
       <c r="X113" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="Y113" s="2"/>
     </row>
-    <row r="114" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C114" s="12">
         <v>2018</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E114" s="15">
         <v>30006045</v>
@@ -12310,19 +12307,19 @@
         <v>33</v>
       </c>
       <c r="Q114" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="R114" s="2" t="s">
         <v>85</v>
       </c>
       <c r="S114" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="T114" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="U114" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V114" s="2"/>
       <c r="W114" s="2" t="s">
@@ -12333,18 +12330,18 @@
       </c>
       <c r="Y114" s="2"/>
     </row>
-    <row r="115" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C115" s="12">
         <v>2019</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E115" s="15">
         <v>30203691</v>
@@ -12383,13 +12380,13 @@
         <v>33</v>
       </c>
       <c r="Q115" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="R115" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S115" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="T115" s="2" t="s">
         <v>87</v>
@@ -12402,24 +12399,24 @@
         <v>45</v>
       </c>
       <c r="X115" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Y115" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="116" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="24" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C116" s="12">
         <v>2016</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E116" s="23">
         <v>30380211</v>
@@ -12455,38 +12452,38 @@
         <v>2</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="Q116" s="2">
         <v>2015</v>
       </c>
       <c r="R116" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="S116" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="T116" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="U116" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V116" s="2"/>
       <c r="W116" s="2" t="s">
         <v>164</v>
       </c>
       <c r="X116" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="Y116" s="2"/>
     </row>
-    <row r="117" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C117" s="12">
         <v>2018</v>
@@ -12531,14 +12528,14 @@
         <v>50</v>
       </c>
       <c r="Q117" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="R117" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="S117" s="2"/>
       <c r="T117" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="U117" s="2" t="s">
         <v>44</v>
@@ -12550,12 +12547,12 @@
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
     </row>
-    <row r="118" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C118" s="12">
         <v>2019</v>
@@ -12600,13 +12597,13 @@
         <v>33</v>
       </c>
       <c r="Q118" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="R118" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="S118" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="T118" s="2" t="s">
         <v>87</v>
@@ -12621,12 +12618,12 @@
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
     </row>
-    <row r="119" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C119" s="12">
         <v>2019</v>
@@ -12671,13 +12668,13 @@
         <v>33</v>
       </c>
       <c r="Q119" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="R119" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="S119" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="T119" s="2" t="s">
         <v>87</v>
@@ -12694,12 +12691,12 @@
       </c>
       <c r="Y119" s="2"/>
     </row>
-    <row r="120" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="21" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C120" s="12">
         <v>2019</v>
@@ -12741,16 +12738,16 @@
         <v>43</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="Q120" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="R120" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S120" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="T120" s="2" t="s">
         <v>50</v>
@@ -12765,12 +12762,12 @@
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
     </row>
-    <row r="121" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C121" s="12">
         <v>2019</v>
@@ -12818,16 +12815,16 @@
         <v>2017</v>
       </c>
       <c r="R121" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="S121" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="T121" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="U121" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V121" s="2"/>
       <c r="W121" s="2" t="s">
@@ -12837,15 +12834,15 @@
         <v>62</v>
       </c>
       <c r="Y121" s="2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C122" s="12">
         <v>2019</v>
@@ -12887,7 +12884,7 @@
         <v>1</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q122" s="2">
         <v>2017</v>
@@ -12896,13 +12893,13 @@
         <v>327</v>
       </c>
       <c r="S122" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="T122" s="2" t="s">
         <v>254</v>
       </c>
       <c r="U122" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V122" s="2"/>
       <c r="W122" s="2" t="s">
@@ -12911,18 +12908,18 @@
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
     </row>
-    <row r="123" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C123" s="12">
         <v>2020</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E123" s="15">
         <v>31961043</v>
@@ -12958,7 +12955,7 @@
         <v>20</v>
       </c>
       <c r="P123" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="Q123" s="2">
         <v>2017</v>
@@ -12976,12 +12973,12 @@
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
     </row>
-    <row r="124" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C124" s="12">
         <v>2020</v>
@@ -13021,22 +13018,22 @@
       </c>
       <c r="O124" s="12"/>
       <c r="P124" s="2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="Q124" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="R124" s="2" t="s">
         <v>188</v>
       </c>
       <c r="S124" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="T124" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="U124" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V124" s="2"/>
       <c r="W124" s="2" t="s">
@@ -13047,12 +13044,12 @@
       </c>
       <c r="Y124" s="2"/>
     </row>
-    <row r="125" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C125" s="12">
         <v>2020</v>
@@ -13094,40 +13091,40 @@
         <v>1</v>
       </c>
       <c r="P125" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="Q125" s="2"/>
       <c r="R125" s="2"/>
       <c r="S125" s="2" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="T125" s="2" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="U125" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V125" s="2"/>
       <c r="W125" s="2" t="s">
         <v>164</v>
       </c>
       <c r="X125" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="Y125" s="2"/>
     </row>
-    <row r="126" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C126" s="12">
         <v>2020</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E126" s="15">
         <v>32307010</v>
@@ -13163,19 +13160,19 @@
         <v>2</v>
       </c>
       <c r="P126" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="Q126" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="R126" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S126" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="T126" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="U126" s="2" t="s">
         <v>44</v>
@@ -13187,12 +13184,12 @@
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
     </row>
-    <row r="127" spans="1:25" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C127" s="12">
         <v>2020</v>
@@ -13240,16 +13237,16 @@
         <v>2019</v>
       </c>
       <c r="R127" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S127" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="T127" s="18" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="U127" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V127" s="2"/>
       <c r="W127" s="2" t="s">
@@ -13260,12 +13257,12 @@
       </c>
       <c r="Y127" s="2"/>
     </row>
-    <row r="128" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C128" s="12">
         <v>2020</v>
@@ -13316,7 +13313,7 @@
         <v>188</v>
       </c>
       <c r="S128" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="T128" s="2" t="s">
         <v>279</v>
@@ -13333,12 +13330,12 @@
       </c>
       <c r="Y128" s="2"/>
     </row>
-    <row r="129" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C129" s="12">
         <v>2019</v>
@@ -13389,7 +13386,7 @@
         <v>35</v>
       </c>
       <c r="S129" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="T129" s="2" t="s">
         <v>66</v>
@@ -13404,18 +13401,18 @@
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
     </row>
-    <row r="130" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C130" s="12">
         <v>2020</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E130" s="15">
         <v>32723637</v>
@@ -13445,25 +13442,25 @@
         <v>28</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="O130" s="12">
         <v>2</v>
       </c>
       <c r="P130" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="Q130" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="R130" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S130" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="T130" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="U130" s="2" t="s">
         <v>44</v>
@@ -13475,18 +13472,18 @@
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
     </row>
-    <row r="131" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C131" s="12">
         <v>2021</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E131" s="15">
         <v>32738065</v>
@@ -13522,16 +13519,16 @@
         <v>18</v>
       </c>
       <c r="P131" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="Q131" s="2">
         <v>2017</v>
       </c>
       <c r="R131" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S131" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="T131" s="2" t="s">
         <v>43</v>
@@ -13548,18 +13545,18 @@
       </c>
       <c r="Y131" s="2"/>
     </row>
-    <row r="132" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C132" s="12">
         <v>2020</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E132" s="15">
         <v>33084573</v>
@@ -13595,7 +13592,7 @@
         <v>3</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="Q132" s="2">
         <v>2012</v>
@@ -13604,13 +13601,13 @@
         <v>168</v>
       </c>
       <c r="S132" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="T132" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U132" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V132" s="2"/>
       <c r="W132" s="2" t="s">
@@ -13619,18 +13616,18 @@
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
     </row>
-    <row r="133" spans="1:25" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C133" s="12">
         <v>2021</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E133" s="15">
         <v>33142046</v>
@@ -13664,16 +13661,16 @@
       </c>
       <c r="O133" s="12"/>
       <c r="P133" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="Q133" s="2">
         <v>2000</v>
       </c>
       <c r="R133" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="S133" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="T133" s="2" t="s">
         <v>43</v>
@@ -13686,18 +13683,18 @@
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
     </row>
-    <row r="134" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C134" s="12">
         <v>2020</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E134" s="15">
         <v>33161829</v>
@@ -13739,7 +13736,7 @@
         <v>2019</v>
       </c>
       <c r="R134" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="S134" s="2"/>
       <c r="T134" s="2" t="s">
@@ -13751,12 +13748,12 @@
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
     </row>
-    <row r="135" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C135" s="12">
         <v>2021</v>
@@ -13798,19 +13795,19 @@
         <v>16</v>
       </c>
       <c r="P135" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="Q135" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="R135" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="S135" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="T135" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="U135" s="2" t="s">
         <v>44</v>
@@ -13824,18 +13821,18 @@
       </c>
       <c r="Y135" s="2"/>
     </row>
-    <row r="136" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C136" s="12">
         <v>2021</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E136" s="15">
         <v>33388553</v>
@@ -13874,13 +13871,13 @@
         <v>254</v>
       </c>
       <c r="Q136" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="R136" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S136" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="T136" s="2" t="s">
         <v>50</v>
@@ -13897,18 +13894,18 @@
       </c>
       <c r="Y136" s="2"/>
     </row>
-    <row r="137" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C137" s="12">
         <v>2021</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E137" s="15">
         <v>33421655</v>
@@ -13938,13 +13935,13 @@
         <v>28</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="O137" s="12">
         <v>1</v>
       </c>
       <c r="P137" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="Q137" s="2">
         <v>2018</v>
@@ -13953,13 +13950,13 @@
         <v>112</v>
       </c>
       <c r="S137" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="T137" s="2" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="U137" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V137" s="2"/>
       <c r="W137" s="2" t="s">
@@ -13968,12 +13965,12 @@
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
     </row>
-    <row r="138" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C138" s="12">
         <v>2021</v>
@@ -14009,26 +14006,26 @@
         <v>28</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="O138" s="12">
         <v>6</v>
       </c>
       <c r="P138" s="2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="Q138" s="2">
         <v>2021</v>
       </c>
       <c r="R138" s="2"/>
       <c r="S138" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="T138" s="2" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="U138" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V138" s="2"/>
       <c r="W138" s="2" t="s">
@@ -14039,12 +14036,12 @@
       </c>
       <c r="Y138" s="2"/>
     </row>
-    <row r="139" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C139" s="12">
         <v>2021</v>
@@ -14080,7 +14077,7 @@
         <v>28</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="O139" s="12">
         <v>1</v>
@@ -14089,10 +14086,10 @@
         <v>33</v>
       </c>
       <c r="Q139" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="R139" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S139" s="2"/>
       <c r="T139" s="2" t="s">
@@ -14106,22 +14103,22 @@
         <v>45</v>
       </c>
       <c r="X139" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Y139" s="2"/>
     </row>
-    <row r="140" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C140" s="12">
         <v>2021</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E140" s="15">
         <v>33672497</v>
@@ -14157,22 +14154,22 @@
         <v>5</v>
       </c>
       <c r="P140" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="Q140" s="2">
         <v>2019</v>
       </c>
       <c r="R140" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="S140" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="T140" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="U140" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V140" s="2"/>
       <c r="W140" s="2" t="s">
@@ -14183,18 +14180,18 @@
       </c>
       <c r="Y140" s="2"/>
     </row>
-    <row r="141" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C141" s="12">
         <v>2021</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E141" s="15">
         <v>33753031</v>
@@ -14230,17 +14227,17 @@
         <v>21</v>
       </c>
       <c r="P141" s="2" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="Q141" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="R141" s="2" t="s">
         <v>188</v>
       </c>
       <c r="S141" s="2"/>
       <c r="T141" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="U141" s="2" t="s">
         <v>44</v>
@@ -14253,15 +14250,15 @@
         <v>141</v>
       </c>
       <c r="Y141" s="2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="142" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C142" s="12">
         <v>2021</v>
@@ -14309,10 +14306,10 @@
         <v>2018</v>
       </c>
       <c r="R142" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S142" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="T142" s="2" t="s">
         <v>170</v>
@@ -14327,18 +14324,18 @@
       </c>
       <c r="Y142" s="2"/>
     </row>
-    <row r="143" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C143" s="12">
         <v>2020</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E143" s="15">
         <v>33954213</v>
@@ -14374,7 +14371,7 @@
         <v>1</v>
       </c>
       <c r="P143" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="Q143" s="2">
         <v>2012</v>
@@ -14383,7 +14380,7 @@
         <v>35</v>
       </c>
       <c r="S143" s="2" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="T143" s="2" t="s">
         <v>50</v>
@@ -14400,12 +14397,12 @@
       </c>
       <c r="Y143" s="2"/>
     </row>
-    <row r="144" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C144" s="12">
         <v>2021</v>
@@ -14447,16 +14444,16 @@
         <v>11</v>
       </c>
       <c r="P144" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="Q144" s="2" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="R144" s="2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="S144" s="2" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="T144" s="2" t="s">
         <v>50</v>
@@ -14471,18 +14468,18 @@
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
     </row>
-    <row r="145" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C145" s="12">
         <v>2021</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E145" s="15">
         <v>34187526</v>
@@ -14518,13 +14515,13 @@
         <v>39</v>
       </c>
       <c r="P145" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="Q145" s="2">
         <v>2018</v>
       </c>
       <c r="R145" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="S145" s="2"/>
       <c r="T145" s="2" t="s">
@@ -14536,12 +14533,12 @@
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
     </row>
-    <row r="146" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C146" s="12">
         <v>2021</v>
@@ -14577,44 +14574,44 @@
         <v>28</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="O146" s="12">
         <v>20</v>
       </c>
       <c r="P146" s="2" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="Q146" s="2">
         <v>2019</v>
       </c>
       <c r="R146" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="S146" s="2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="T146" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="U146" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V146" s="2"/>
       <c r="W146" s="2" t="s">
         <v>164</v>
       </c>
       <c r="X146" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="Y146" s="2"/>
     </row>
-    <row r="147" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C147" s="12">
         <v>2021</v>
@@ -14656,22 +14653,22 @@
         <v>5</v>
       </c>
       <c r="P147" s="2" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="Q147" s="2">
         <v>2019</v>
       </c>
       <c r="R147" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="S147" s="2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="T147" s="2" t="s">
         <v>43</v>
       </c>
       <c r="U147" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V147" s="2"/>
       <c r="W147" s="2" t="s">
@@ -14680,12 +14677,12 @@
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
     </row>
-    <row r="148" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C148" s="12">
         <v>2021</v>
@@ -14727,22 +14724,22 @@
         <v>2</v>
       </c>
       <c r="P148" s="2" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="Q148" s="2">
         <v>2019</v>
       </c>
       <c r="R148" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S148" s="2" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="T148" s="2" t="s">
         <v>87</v>
       </c>
       <c r="U148" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V148" s="2"/>
       <c r="W148" s="2" t="s">
@@ -14753,12 +14750,12 @@
       </c>
       <c r="Y148" s="2"/>
     </row>
-    <row r="149" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C149" s="12">
         <v>2021</v>
@@ -14794,7 +14791,7 @@
         <v>28</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="O149" s="12"/>
       <c r="P149" s="2" t="s">
@@ -14805,10 +14802,10 @@
       </c>
       <c r="R149" s="2"/>
       <c r="S149" s="2" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="T149" s="2" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="U149" s="2"/>
       <c r="V149" s="2"/>
@@ -14816,16 +14813,16 @@
         <v>45</v>
       </c>
       <c r="X149" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="Y149" s="2"/>
     </row>
-    <row r="150" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C150" s="12">
         <v>2021</v>
@@ -14870,19 +14867,19 @@
         <v>33</v>
       </c>
       <c r="Q150" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="R150" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="S150" s="2" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="T150" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="U150" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V150" s="2"/>
       <c r="W150" s="2" t="s">
@@ -14893,18 +14890,18 @@
       </c>
       <c r="Y150" s="2"/>
     </row>
-    <row r="151" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C151" s="12">
         <v>2022</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E151" s="15">
         <v>34763306</v>
@@ -14940,7 +14937,7 @@
         <v>1</v>
       </c>
       <c r="P151" s="2" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Q151" s="2">
         <v>2015</v>
@@ -14949,10 +14946,10 @@
         <v>78</v>
       </c>
       <c r="S151" s="2" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="T151" s="2" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="U151" s="2" t="s">
         <v>44</v>
@@ -14966,12 +14963,12 @@
       </c>
       <c r="Y151" s="2"/>
     </row>
-    <row r="152" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C152" s="12">
         <v>2021</v>
@@ -15013,19 +15010,19 @@
         <v>105</v>
       </c>
       <c r="P152" s="2" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="Q152" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="R152" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S152" s="2" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="T152" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="U152" s="2"/>
       <c r="V152" s="2"/>
@@ -15037,12 +15034,12 @@
       </c>
       <c r="Y152" s="2"/>
     </row>
-    <row r="153" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C153" s="14">
         <v>2022</v>
@@ -15078,23 +15075,23 @@
         <v>28</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="O153" s="12"/>
       <c r="P153" s="2" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="Q153" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="R153" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S153" s="2" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="T153" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="U153" s="2" t="s">
         <v>44</v>
@@ -15108,16 +15105,16 @@
     </row>
     <row r="154" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C154" s="12">
         <v>2022</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E154" s="15">
         <v>35531170</v>
@@ -15153,19 +15150,19 @@
         <v>8</v>
       </c>
       <c r="P154" s="2" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="Q154" s="2" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="R154" s="2" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="S154" s="2" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="T154" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="U154" s="2" t="s">
         <v>44</v>
@@ -15177,18 +15174,18 @@
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
     </row>
-    <row r="155" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C155" s="12">
         <v>2022</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E155" s="15">
         <v>35551538</v>
@@ -15224,22 +15221,22 @@
         <v>500</v>
       </c>
       <c r="P155" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="Q155" s="2" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="R155" s="2" t="s">
         <v>112</v>
       </c>
       <c r="S155" s="18" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="T155" s="2" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="U155" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V155" s="2"/>
       <c r="W155" s="2" t="s">
@@ -15250,18 +15247,18 @@
       </c>
       <c r="Y155" s="2"/>
     </row>
-    <row r="156" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C156" s="12">
         <v>2022</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="E156" s="15">
         <v>35789906</v>
@@ -15295,42 +15292,42 @@
       </c>
       <c r="O156" s="12"/>
       <c r="P156" s="2" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" s="2" t="s">
-        <v>820</v>
+        <v>85</v>
       </c>
       <c r="S156" s="2" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="T156" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="U156" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V156" s="2"/>
       <c r="W156" s="2" t="s">
         <v>164</v>
       </c>
       <c r="X156" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="Y156" s="2"/>
     </row>
-    <row r="157" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C157" s="12">
         <v>2022</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="E157" s="15">
         <v>36014962</v>
@@ -15372,10 +15369,10 @@
         <v>2021</v>
       </c>
       <c r="R157" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="S157" s="2" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="T157" s="2" t="s">
         <v>254</v>
@@ -15392,18 +15389,18 @@
       </c>
       <c r="Y157" s="2"/>
     </row>
-    <row r="158" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C158" s="12">
         <v>2022</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="E158" s="15">
         <v>36108783</v>
@@ -15433,24 +15430,24 @@
         <v>28</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="O158" s="12"/>
       <c r="P158" s="2" t="s">
         <v>40</v>
       </c>
       <c r="Q158" s="2" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="R158" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="S158" s="2"/>
       <c r="T158" s="2" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="U158" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V158" s="2"/>
       <c r="W158" s="2" t="s">
@@ -15459,18 +15456,18 @@
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
     </row>
-    <row r="159" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C159" s="12">
         <v>2022</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E159" s="15">
         <v>36268900</v>
@@ -15509,39 +15506,39 @@
         <v>254</v>
       </c>
       <c r="Q159" s="2" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="R159" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="S159" s="2"/>
       <c r="T159" s="2" t="s">
         <v>43</v>
       </c>
       <c r="U159" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V159" s="2"/>
       <c r="W159" s="2" t="s">
         <v>164</v>
       </c>
       <c r="X159" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Y159" s="2"/>
     </row>
-    <row r="160" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C160" s="12">
         <v>2022</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="E160" s="15">
         <v>36558837</v>
@@ -15583,36 +15580,36 @@
         <v>2018</v>
       </c>
       <c r="R160" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="S160" s="2"/>
       <c r="T160" s="2" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="U160" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V160" s="2"/>
       <c r="W160" s="2" t="s">
         <v>164</v>
       </c>
       <c r="X160" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Y160" s="2"/>
     </row>
-    <row r="161" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C161" s="12">
         <v>2023</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E161" s="15">
         <v>36611216</v>
@@ -15646,20 +15643,20 @@
       </c>
       <c r="O161" s="12"/>
       <c r="P161" s="2" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="Q161" s="2">
         <v>2018</v>
       </c>
       <c r="R161" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="S161" s="2"/>
       <c r="T161" s="2" t="s">
         <v>254</v>
       </c>
       <c r="U161" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V161" s="2"/>
       <c r="W161" s="2" t="s">
@@ -15668,12 +15665,12 @@
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
     </row>
-    <row r="162" spans="1:25" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="C162" s="12">
         <v>2023</v>
@@ -15718,13 +15715,13 @@
         <v>33</v>
       </c>
       <c r="Q162" s="2" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="R162" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S162" s="2" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="T162" s="18"/>
       <c r="U162" s="2"/>
@@ -15735,12 +15732,12 @@
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
     </row>
-    <row r="163" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C163" s="12">
         <v>2023</v>
@@ -15791,13 +15788,13 @@
         <v>41</v>
       </c>
       <c r="S163" s="2" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="T163" s="2" t="s">
         <v>66</v>
       </c>
       <c r="U163" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V163" s="2"/>
       <c r="W163" s="2" t="s">
@@ -15808,12 +15805,12 @@
       </c>
       <c r="Y163" s="2"/>
     </row>
-    <row r="164" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C164" s="12">
         <v>2023</v>
@@ -15864,13 +15861,13 @@
         <v>188</v>
       </c>
       <c r="S164" s="2" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="T164" s="2" t="s">
         <v>170</v>
       </c>
       <c r="U164" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V164" s="2"/>
       <c r="W164" s="2" t="s">
@@ -15881,18 +15878,18 @@
       </c>
       <c r="Y164" s="2"/>
     </row>
-    <row r="165" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C165" s="12">
         <v>2023</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="E165" s="15">
         <v>37056704</v>
@@ -15928,19 +15925,19 @@
         <v>1</v>
       </c>
       <c r="P165" s="2" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="Q165" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="R165" s="2" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="S165" s="2" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="T165" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="U165" s="2" t="s">
         <v>44</v>
@@ -15952,18 +15949,18 @@
       <c r="X165" s="2"/>
       <c r="Y165" s="2"/>
     </row>
-    <row r="166" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C166" s="12">
         <v>2023</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E166" s="15">
         <v>37323891</v>
@@ -15993,28 +15990,28 @@
         <v>28</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="O166" s="12">
         <v>40</v>
       </c>
       <c r="P166" s="2" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="Q166" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="R166" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S166" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="T166" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U166" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V166" s="2"/>
       <c r="W166" s="2" t="s">
@@ -16023,12 +16020,12 @@
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
     </row>
-    <row r="167" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C167" s="12">
         <v>2023</v>
@@ -16064,7 +16061,7 @@
         <v>28</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="O167" s="12">
         <v>4</v>
@@ -16087,17 +16084,17 @@
       </c>
       <c r="V167" s="2"/>
       <c r="W167" s="2" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
     </row>
-    <row r="168" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C168" s="12">
         <v>2023</v>
@@ -16139,20 +16136,20 @@
         <v>8</v>
       </c>
       <c r="P168" s="2" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="Q168" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="R168" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="S168" s="2"/>
       <c r="T168" s="2" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="U168" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V168" s="2"/>
       <c r="W168" s="2" t="s">
@@ -16161,12 +16158,12 @@
       <c r="X168" s="2"/>
       <c r="Y168" s="2"/>
     </row>
-    <row r="169" spans="1:25" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C169" s="12">
         <v>2024</v>
@@ -16211,13 +16208,13 @@
         <v>33</v>
       </c>
       <c r="Q169" s="2" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="R169" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S169" s="2" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="T169" s="2" t="s">
         <v>87</v>
@@ -16228,16 +16225,16 @@
         <v>164</v>
       </c>
       <c r="X169" s="2" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="Y169" s="2"/>
     </row>
-    <row r="170" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C170" s="12">
         <v>2024</v>
@@ -16279,22 +16276,22 @@
         <v>2</v>
       </c>
       <c r="P170" s="2" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="Q170" s="2">
         <v>2022</v>
       </c>
       <c r="R170" s="2" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="S170" s="2" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="T170" s="2" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="U170" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V170" s="2"/>
       <c r="W170" s="2" t="s">
@@ -16303,12 +16300,12 @@
       <c r="X170" s="2"/>
       <c r="Y170" s="2"/>
     </row>
-    <row r="171" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C171" s="12">
         <v>2024</v>
@@ -16350,22 +16347,22 @@
         <v>2</v>
       </c>
       <c r="P171" s="2" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="Q171" s="2">
         <v>2020</v>
       </c>
       <c r="R171" s="2" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="S171" s="2" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="T171" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U171" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V171" s="2"/>
       <c r="W171" s="2" t="s">
@@ -16374,12 +16371,12 @@
       <c r="X171" s="2"/>
       <c r="Y171" s="2"/>
     </row>
-    <row r="172" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C172" s="12">
         <v>2024</v>
@@ -16424,19 +16421,19 @@
         <v>33</v>
       </c>
       <c r="Q172" s="2" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="R172" s="2" t="s">
         <v>188</v>
       </c>
       <c r="S172" s="2" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="T172" s="2" t="s">
         <v>148</v>
       </c>
       <c r="U172" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V172" s="2"/>
       <c r="W172" s="2" t="s">
@@ -16445,18 +16442,18 @@
       <c r="X172" s="2"/>
       <c r="Y172" s="2"/>
     </row>
-    <row r="173" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C173" s="12">
         <v>2024</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E173" s="15">
         <v>39065234</v>
@@ -16492,7 +16489,7 @@
         <v>1</v>
       </c>
       <c r="P173" s="2" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="Q173" s="2">
         <v>2021</v>
@@ -16501,13 +16498,13 @@
         <v>78</v>
       </c>
       <c r="S173" s="2" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="T173" s="2" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="U173" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V173" s="2"/>
       <c r="W173" s="2" t="s">
@@ -16516,18 +16513,18 @@
       <c r="X173" s="2"/>
       <c r="Y173" s="2"/>
     </row>
-    <row r="174" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C174" s="12">
         <v>2024</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="E174" s="15">
         <v>39147851</v>
@@ -16569,36 +16566,36 @@
         <v>2021</v>
       </c>
       <c r="R174" s="2" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="S174" s="2" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="T174" s="2" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="U174" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V174" s="2"/>
       <c r="W174" s="2" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
     </row>
-    <row r="175" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="C175" s="15">
         <v>2002</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="E175" s="23">
         <v>12173427</v>
@@ -16634,19 +16631,19 @@
         <v>18</v>
       </c>
       <c r="P175" s="15" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="Q175" s="15" t="s">
         <v>118</v>
       </c>
       <c r="R175" s="15" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="S175" s="15" t="s">
         <v>120</v>
       </c>
       <c r="T175" s="15" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="U175" s="15" t="s">
         <v>44</v>
@@ -16659,21 +16656,21 @@
       </c>
       <c r="X175" s="17"/>
       <c r="Y175" s="17" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="176" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C176" s="15">
         <v>2014</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E176" s="20">
         <v>25845138</v>
@@ -16718,7 +16715,7 @@
         <v>112</v>
       </c>
       <c r="S176" s="15" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="T176" s="15" t="s">
         <v>87</v>
@@ -16732,21 +16729,21 @@
       </c>
       <c r="X176" s="17"/>
       <c r="Y176" s="17" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="15" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="177" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="15" t="s">
-        <v>914</v>
-      </c>
       <c r="B177" s="15" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="C177" s="15">
         <v>2014</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="E177" s="20">
         <v>25335413</v>
@@ -16789,35 +16786,35 @@
         <v>112</v>
       </c>
       <c r="S177" s="15" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="T177" s="15" t="s">
         <v>40</v>
       </c>
       <c r="U177" s="15" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V177" s="15"/>
       <c r="W177" s="15" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="X177" s="17"/>
       <c r="Y177" s="17" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="178" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="15" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C178" s="15">
         <v>2013</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E178" s="20">
         <v>24364143</v>
@@ -16853,7 +16850,7 @@
         <v>12</v>
       </c>
       <c r="P178" s="15" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="Q178" s="15">
         <v>2009</v>
@@ -16862,7 +16859,7 @@
         <v>180</v>
       </c>
       <c r="S178" s="15" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="T178" s="15" t="s">
         <v>40</v>
@@ -16876,21 +16873,21 @@
       </c>
       <c r="X178" s="17"/>
       <c r="Y178" s="17" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="179" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="15" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C179" s="15">
         <v>2005</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="E179" s="20">
         <v>16415986</v>
@@ -16926,19 +16923,19 @@
         <v>17</v>
       </c>
       <c r="P179" s="15" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="Q179" s="15" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="R179" s="15" t="s">
         <v>78</v>
       </c>
       <c r="S179" s="15" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="T179" s="15" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="U179" s="15" t="s">
         <v>44</v>
@@ -16951,21 +16948,21 @@
       </c>
       <c r="X179" s="17"/>
       <c r="Y179" s="17" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="180" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="15" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C180" s="15">
         <v>2001</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="E180" s="20">
         <v>11436635</v>
@@ -17008,7 +17005,7 @@
         <v>78</v>
       </c>
       <c r="S180" s="15" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="T180" s="15"/>
       <c r="U180" s="15" t="s">
@@ -17022,21 +17019,21 @@
       </c>
       <c r="X180" s="17"/>
       <c r="Y180" s="17" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="181" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="15" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C181" s="15">
         <v>2002</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="E181" s="20">
         <v>12667358</v>
@@ -17072,10 +17069,10 @@
         <v>5</v>
       </c>
       <c r="P181" s="15" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="Q181" s="15" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="R181" s="15" t="s">
         <v>78</v>
@@ -17093,21 +17090,21 @@
       </c>
       <c r="X181" s="17"/>
       <c r="Y181" s="17" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="182" spans="1:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="15" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C182" s="15">
         <v>2006</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="E182" s="20">
         <v>17415983</v>
@@ -17143,17 +17140,17 @@
         <v>36</v>
       </c>
       <c r="P182" s="15" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="Q182" s="15" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="R182" s="15" t="s">
         <v>78</v>
       </c>
       <c r="S182" s="15"/>
       <c r="T182" s="15" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="U182" s="15" t="s">
         <v>44</v>
@@ -17166,23 +17163,11 @@
       </c>
       <c r="X182" s="17"/>
       <c r="Y182" s="17" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y182" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="17">
-      <filters>
-        <filter val="Afghanistan"/>
-        <filter val="Albania,Russia, China, Central Assia, Iran, Iraq, Africa,Pakista, Afghanistan, Kosovo,Greece"/>
-        <filter val="Greece, Senegal, Mauritania, China, Russia, Nigeria, Pakistan, Oman, South Africa, Turkey, Republic of the Congo"/>
-        <filter val="Iran and Turkey"/>
-        <filter val="Kenya, Ethiopia, Sudan, Somalia"/>
-        <filter val="Pakistan and Afghanistan"/>
-        <filter val="Pakistan, Afghanistan"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Y182" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Pubmed/CCHF/ReferenceSummary_Feb25.xlsx
+++ b/Pubmed/CCHF/ReferenceSummary_Feb25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindazhou/Desktop/HIV/GenBankRefs/Pubmed/CCHF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/CCHF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A455F3B-D83E-D540-8750-AB1EF63B4C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78D5F5D-1B99-9F4A-90B5-68F7AA3724AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="1220" windowWidth="34260" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="500" windowWidth="34260" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3396" uniqueCount="948">
   <si>
     <t>Title</t>
   </si>
@@ -3591,6 +3591,9 @@
   <si>
     <t>Iran, Turkey</t>
   </si>
+  <si>
+    <t>JF922673, JF922674, JF922675, JF922676, JF922677, JF922678, JF922679</t>
+  </si>
 </sst>
 </file>
 
@@ -4126,9 +4129,9 @@
   </sheetPr>
   <dimension ref="A1:AW182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R58" sqref="R58"/>
+      <selection pane="bottomLeft" activeCell="S72" sqref="S72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8472,7 +8475,9 @@
       <c r="R60" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="S60" s="2"/>
+      <c r="S60" s="2" t="s">
+        <v>947</v>
+      </c>
       <c r="T60" s="2" t="s">
         <v>357</v>
       </c>

--- a/Pubmed/CCHF/ReferenceSummary_Feb25.xlsx
+++ b/Pubmed/CCHF/ReferenceSummary_Feb25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/CCHF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78D5F5D-1B99-9F4A-90B5-68F7AA3724AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9740BBC4-8A2D-7945-8AAA-A97F005F4973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="500" windowWidth="34260" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3396" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="947">
   <si>
     <t>Title</t>
   </si>
@@ -1946,9 +1946,6 @@
   </si>
   <si>
     <t>2002-2015</t>
-  </si>
-  <si>
-    <t>EF432639, EF432640, EF432641, EF432642, EF432643, EF432644, EF432645, EF432646, EF432647, EF432648, EF432649, EF432650, EF432651, EF432652, EF432653</t>
   </si>
   <si>
     <t>Added later, Not mentioned in Paper</t>
@@ -4130,8 +4127,8 @@
   <dimension ref="A1:AW182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S72" sqref="S72"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T125" sqref="T125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4573,7 +4570,7 @@
         <v>1993</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2" t="s">
@@ -4638,7 +4635,7 @@
         <v>70</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>71</v>
@@ -6609,7 +6606,7 @@
         <v>230</v>
       </c>
       <c r="R34" s="18" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>231</v>
@@ -6899,7 +6896,7 @@
         <v>249</v>
       </c>
       <c r="R38" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>250</v>
@@ -8100,7 +8097,7 @@
         <v>2008</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="S55" s="2" t="s">
         <v>334</v>
@@ -8476,7 +8473,7 @@
         <v>356</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="T60" s="2" t="s">
         <v>357</v>
@@ -8544,7 +8541,7 @@
         <v>2010</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="S61" s="2" t="s">
         <v>361</v>
@@ -8615,7 +8612,7 @@
         <v>2009</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="S62" s="2"/>
       <c r="T62" s="2" t="s">
@@ -9323,7 +9320,7 @@
         <v>405</v>
       </c>
       <c r="R72" s="18" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="S72" s="2" t="s">
         <v>406</v>
@@ -10248,7 +10245,7 @@
         <v>2011</v>
       </c>
       <c r="R85" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="S85" s="2"/>
       <c r="T85" s="2" t="s">
@@ -12390,9 +12387,7 @@
       <c r="R115" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="S115" s="2" t="s">
-        <v>611</v>
-      </c>
+      <c r="S115" s="2"/>
       <c r="T115" s="2" t="s">
         <v>87</v>
       </c>
@@ -12407,21 +12402,21 @@
         <v>389</v>
       </c>
       <c r="Y115" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="116" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="C116" s="12">
         <v>2016</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E116" s="23">
         <v>30380211</v>
@@ -12457,19 +12452,19 @@
         <v>2</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="Q116" s="2">
         <v>2015</v>
       </c>
       <c r="R116" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="S116" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="S116" s="2" t="s">
+      <c r="T116" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="T116" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="U116" s="2" t="s">
         <v>432</v>
@@ -12479,16 +12474,16 @@
         <v>164</v>
       </c>
       <c r="X116" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="Y116" s="2"/>
     </row>
     <row r="117" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>622</v>
       </c>
       <c r="C117" s="12">
         <v>2018</v>
@@ -12536,11 +12531,11 @@
         <v>475</v>
       </c>
       <c r="R117" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="S117" s="2"/>
       <c r="T117" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="U117" s="2" t="s">
         <v>44</v>
@@ -12554,10 +12549,10 @@
     </row>
     <row r="118" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>626</v>
       </c>
       <c r="C118" s="12">
         <v>2019</v>
@@ -12605,10 +12600,10 @@
         <v>507</v>
       </c>
       <c r="R118" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="S118" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="S118" s="2" t="s">
-        <v>628</v>
       </c>
       <c r="T118" s="2" t="s">
         <v>87</v>
@@ -12625,10 +12620,10 @@
     </row>
     <row r="119" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>630</v>
       </c>
       <c r="C119" s="12">
         <v>2019</v>
@@ -12673,13 +12668,13 @@
         <v>33</v>
       </c>
       <c r="Q119" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="R119" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="R119" s="2" t="s">
+      <c r="S119" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="S119" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="T119" s="2" t="s">
         <v>87</v>
@@ -12698,10 +12693,10 @@
     </row>
     <row r="120" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="C120" s="12">
         <v>2019</v>
@@ -12743,16 +12738,16 @@
         <v>43</v>
       </c>
       <c r="P120" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q120" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="Q120" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="R120" s="2" t="s">
         <v>350</v>
       </c>
       <c r="S120" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="T120" s="2" t="s">
         <v>50</v>
@@ -12769,10 +12764,10 @@
     </row>
     <row r="121" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>640</v>
       </c>
       <c r="C121" s="12">
         <v>2019</v>
@@ -12820,13 +12815,13 @@
         <v>2017</v>
       </c>
       <c r="R121" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="S121" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="S121" s="2" t="s">
+      <c r="T121" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="T121" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="U121" s="2" t="s">
         <v>432</v>
@@ -12839,15 +12834,15 @@
         <v>62</v>
       </c>
       <c r="Y121" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="122" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>645</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>646</v>
       </c>
       <c r="C122" s="12">
         <v>2019</v>
@@ -12898,7 +12893,7 @@
         <v>327</v>
       </c>
       <c r="S122" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="T122" s="2" t="s">
         <v>254</v>
@@ -12915,16 +12910,16 @@
     </row>
     <row r="123" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="C123" s="12">
         <v>2020</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E123" s="15">
         <v>31961043</v>
@@ -12960,7 +12955,7 @@
         <v>20</v>
       </c>
       <c r="P123" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="Q123" s="2">
         <v>2017</v>
@@ -12980,10 +12975,10 @@
     </row>
     <row r="124" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>653</v>
       </c>
       <c r="C124" s="12">
         <v>2020</v>
@@ -13023,19 +13018,19 @@
       </c>
       <c r="O124" s="12"/>
       <c r="P124" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q124" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="Q124" s="2" t="s">
-        <v>655</v>
       </c>
       <c r="R124" s="2" t="s">
         <v>188</v>
       </c>
       <c r="S124" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="T124" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="T124" s="2" t="s">
-        <v>657</v>
       </c>
       <c r="U124" s="2" t="s">
         <v>432</v>
@@ -13051,10 +13046,10 @@
     </row>
     <row r="125" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>659</v>
       </c>
       <c r="C125" s="12">
         <v>2020</v>
@@ -13096,15 +13091,15 @@
         <v>1</v>
       </c>
       <c r="P125" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Q125" s="2"/>
       <c r="R125" s="2"/>
       <c r="S125" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="T125" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="T125" s="2" t="s">
-        <v>663</v>
       </c>
       <c r="U125" s="2" t="s">
         <v>432</v>
@@ -13114,16 +13109,16 @@
         <v>164</v>
       </c>
       <c r="X125" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Y125" s="2"/>
     </row>
     <row r="126" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>665</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>666</v>
       </c>
       <c r="C126" s="12">
         <v>2020</v>
@@ -13165,19 +13160,19 @@
         <v>2</v>
       </c>
       <c r="P126" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q126" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="Q126" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="R126" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S126" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="T126" s="2" t="s">
         <v>669</v>
-      </c>
-      <c r="T126" s="2" t="s">
-        <v>670</v>
       </c>
       <c r="U126" s="2" t="s">
         <v>44</v>
@@ -13191,10 +13186,10 @@
     </row>
     <row r="127" spans="1:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>672</v>
       </c>
       <c r="C127" s="12">
         <v>2020</v>
@@ -13245,10 +13240,10 @@
         <v>356</v>
       </c>
       <c r="S127" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="T127" s="18" t="s">
         <v>673</v>
-      </c>
-      <c r="T127" s="18" t="s">
-        <v>674</v>
       </c>
       <c r="U127" s="2" t="s">
         <v>432</v>
@@ -13264,10 +13259,10 @@
     </row>
     <row r="128" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>676</v>
       </c>
       <c r="C128" s="12">
         <v>2020</v>
@@ -13318,7 +13313,7 @@
         <v>188</v>
       </c>
       <c r="S128" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="T128" s="2" t="s">
         <v>279</v>
@@ -13337,10 +13332,10 @@
     </row>
     <row r="129" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="C129" s="12">
         <v>2019</v>
@@ -13391,7 +13386,7 @@
         <v>35</v>
       </c>
       <c r="S129" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="T129" s="2" t="s">
         <v>66</v>
@@ -13408,10 +13403,10 @@
     </row>
     <row r="130" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="C130" s="12">
         <v>2020</v>
@@ -13447,25 +13442,25 @@
         <v>28</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O130" s="12">
         <v>2</v>
       </c>
       <c r="P130" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q130" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="Q130" s="2" t="s">
-        <v>685</v>
       </c>
       <c r="R130" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S130" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="T130" s="2" t="s">
         <v>686</v>
-      </c>
-      <c r="T130" s="2" t="s">
-        <v>687</v>
       </c>
       <c r="U130" s="2" t="s">
         <v>44</v>
@@ -13479,16 +13474,16 @@
     </row>
     <row r="131" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>689</v>
       </c>
       <c r="C131" s="12">
         <v>2021</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E131" s="15">
         <v>32738065</v>
@@ -13524,7 +13519,7 @@
         <v>18</v>
       </c>
       <c r="P131" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q131" s="2">
         <v>2017</v>
@@ -13533,7 +13528,7 @@
         <v>350</v>
       </c>
       <c r="S131" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="T131" s="2" t="s">
         <v>43</v>
@@ -13552,16 +13547,16 @@
     </row>
     <row r="132" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>693</v>
       </c>
       <c r="C132" s="12">
         <v>2020</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E132" s="15">
         <v>33084573</v>
@@ -13597,7 +13592,7 @@
         <v>3</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="Q132" s="2">
         <v>2012</v>
@@ -13606,7 +13601,7 @@
         <v>168</v>
       </c>
       <c r="S132" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="T132" s="2" t="s">
         <v>50</v>
@@ -13623,16 +13618,16 @@
     </row>
     <row r="133" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>698</v>
       </c>
       <c r="C133" s="12">
         <v>2021</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E133" s="15">
         <v>33142046</v>
@@ -13666,16 +13661,16 @@
       </c>
       <c r="O133" s="12"/>
       <c r="P133" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="Q133" s="2">
         <v>2000</v>
       </c>
       <c r="R133" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="S133" s="2" t="s">
         <v>700</v>
-      </c>
-      <c r="S133" s="2" t="s">
-        <v>701</v>
       </c>
       <c r="T133" s="2" t="s">
         <v>43</v>
@@ -13690,16 +13685,16 @@
     </row>
     <row r="134" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>703</v>
       </c>
       <c r="C134" s="12">
         <v>2020</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E134" s="15">
         <v>33161829</v>
@@ -13741,7 +13736,7 @@
         <v>2019</v>
       </c>
       <c r="R134" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="S134" s="2"/>
       <c r="T134" s="2" t="s">
@@ -13755,10 +13750,10 @@
     </row>
     <row r="135" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="C135" s="12">
         <v>2021</v>
@@ -13800,19 +13795,19 @@
         <v>16</v>
       </c>
       <c r="P135" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q135" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="R135" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="S135" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="Q135" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="R135" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="S135" s="2" t="s">
+      <c r="T135" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="T135" s="2" t="s">
-        <v>710</v>
       </c>
       <c r="U135" s="2" t="s">
         <v>44</v>
@@ -13828,10 +13823,10 @@
     </row>
     <row r="136" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>711</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>712</v>
       </c>
       <c r="C136" s="12">
         <v>2021</v>
@@ -13882,7 +13877,7 @@
         <v>41</v>
       </c>
       <c r="S136" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="T136" s="2" t="s">
         <v>50</v>
@@ -13901,10 +13896,10 @@
     </row>
     <row r="137" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>714</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>715</v>
       </c>
       <c r="C137" s="12">
         <v>2021</v>
@@ -13940,13 +13935,13 @@
         <v>28</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O137" s="12">
         <v>1</v>
       </c>
       <c r="P137" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="Q137" s="2">
         <v>2018</v>
@@ -13955,10 +13950,10 @@
         <v>112</v>
       </c>
       <c r="S137" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="T137" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="T137" s="2" t="s">
-        <v>719</v>
       </c>
       <c r="U137" s="2" t="s">
         <v>432</v>
@@ -13972,10 +13967,10 @@
     </row>
     <row r="138" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>720</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>721</v>
       </c>
       <c r="C138" s="12">
         <v>2021</v>
@@ -14011,23 +14006,23 @@
         <v>28</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="O138" s="12">
         <v>6</v>
       </c>
       <c r="P138" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="Q138" s="2">
         <v>2021</v>
       </c>
       <c r="R138" s="2"/>
       <c r="S138" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="T138" s="2" t="s">
         <v>724</v>
-      </c>
-      <c r="T138" s="2" t="s">
-        <v>725</v>
       </c>
       <c r="U138" s="2" t="s">
         <v>432</v>
@@ -14043,10 +14038,10 @@
     </row>
     <row r="139" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>726</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>727</v>
       </c>
       <c r="C139" s="12">
         <v>2021</v>
@@ -14082,7 +14077,7 @@
         <v>28</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="O139" s="12">
         <v>1</v>
@@ -14091,7 +14086,7 @@
         <v>33</v>
       </c>
       <c r="Q139" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="R139" s="2" t="s">
         <v>350</v>
@@ -14114,16 +14109,16 @@
     </row>
     <row r="140" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>730</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>731</v>
       </c>
       <c r="C140" s="12">
         <v>2021</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E140" s="15">
         <v>33672497</v>
@@ -14159,7 +14154,7 @@
         <v>5</v>
       </c>
       <c r="P140" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Q140" s="2">
         <v>2019</v>
@@ -14168,10 +14163,10 @@
         <v>581</v>
       </c>
       <c r="S140" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="T140" s="2" t="s">
         <v>734</v>
-      </c>
-      <c r="T140" s="2" t="s">
-        <v>735</v>
       </c>
       <c r="U140" s="2" t="s">
         <v>432</v>
@@ -14187,16 +14182,16 @@
     </row>
     <row r="141" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>736</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>737</v>
       </c>
       <c r="C141" s="12">
         <v>2021</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E141" s="15">
         <v>33753031</v>
@@ -14232,17 +14227,17 @@
         <v>21</v>
       </c>
       <c r="P141" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q141" s="2" t="s">
         <v>739</v>
-      </c>
-      <c r="Q141" s="2" t="s">
-        <v>740</v>
       </c>
       <c r="R141" s="2" t="s">
         <v>188</v>
       </c>
       <c r="S141" s="2"/>
       <c r="T141" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="U141" s="2" t="s">
         <v>44</v>
@@ -14255,15 +14250,15 @@
         <v>141</v>
       </c>
       <c r="Y141" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="142" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>743</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>744</v>
       </c>
       <c r="C142" s="12">
         <v>2021</v>
@@ -14314,7 +14309,7 @@
         <v>350</v>
       </c>
       <c r="S142" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="T142" s="2" t="s">
         <v>170</v>
@@ -14331,10 +14326,10 @@
     </row>
     <row r="143" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>747</v>
       </c>
       <c r="C143" s="12">
         <v>2020</v>
@@ -14376,7 +14371,7 @@
         <v>1</v>
       </c>
       <c r="P143" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="Q143" s="2">
         <v>2012</v>
@@ -14385,7 +14380,7 @@
         <v>35</v>
       </c>
       <c r="S143" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="T143" s="2" t="s">
         <v>50</v>
@@ -14404,10 +14399,10 @@
     </row>
     <row r="144" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>750</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>751</v>
       </c>
       <c r="C144" s="12">
         <v>2021</v>
@@ -14449,16 +14444,16 @@
         <v>11</v>
       </c>
       <c r="P144" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="Q144" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="R144" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="R144" s="2" t="s">
+      <c r="S144" s="2" t="s">
         <v>753</v>
-      </c>
-      <c r="S144" s="2" t="s">
-        <v>754</v>
       </c>
       <c r="T144" s="2" t="s">
         <v>50</v>
@@ -14475,10 +14470,10 @@
     </row>
     <row r="145" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>756</v>
       </c>
       <c r="C145" s="12">
         <v>2021</v>
@@ -14520,13 +14515,13 @@
         <v>39</v>
       </c>
       <c r="P145" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="Q145" s="2">
         <v>2018</v>
       </c>
       <c r="R145" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="S145" s="2"/>
       <c r="T145" s="2" t="s">
@@ -14540,10 +14535,10 @@
     </row>
     <row r="146" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="C146" s="12">
         <v>2021</v>
@@ -14579,25 +14574,25 @@
         <v>28</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O146" s="12">
         <v>20</v>
       </c>
       <c r="P146" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="Q146" s="2">
         <v>2019</v>
       </c>
       <c r="R146" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="S146" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="S146" s="2" t="s">
+      <c r="T146" s="2" t="s">
         <v>764</v>
-      </c>
-      <c r="T146" s="2" t="s">
-        <v>765</v>
       </c>
       <c r="U146" s="2" t="s">
         <v>432</v>
@@ -14607,16 +14602,16 @@
         <v>164</v>
       </c>
       <c r="X146" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="Y146" s="2"/>
     </row>
     <row r="147" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>767</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>768</v>
       </c>
       <c r="C147" s="12">
         <v>2021</v>
@@ -14658,16 +14653,16 @@
         <v>5</v>
       </c>
       <c r="P147" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="Q147" s="2">
         <v>2019</v>
       </c>
       <c r="R147" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="S147" s="2" t="s">
         <v>771</v>
-      </c>
-      <c r="S147" s="2" t="s">
-        <v>772</v>
       </c>
       <c r="T147" s="2" t="s">
         <v>43</v>
@@ -14684,10 +14679,10 @@
     </row>
     <row r="148" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>773</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>774</v>
       </c>
       <c r="C148" s="12">
         <v>2021</v>
@@ -14729,7 +14724,7 @@
         <v>2</v>
       </c>
       <c r="P148" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="Q148" s="2">
         <v>2019</v>
@@ -14738,7 +14733,7 @@
         <v>356</v>
       </c>
       <c r="S148" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="T148" s="2" t="s">
         <v>87</v>
@@ -14757,10 +14752,10 @@
     </row>
     <row r="149" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>777</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>778</v>
       </c>
       <c r="C149" s="12">
         <v>2021</v>
@@ -14796,7 +14791,7 @@
         <v>28</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O149" s="12"/>
       <c r="P149" s="2" t="s">
@@ -14807,10 +14802,10 @@
       </c>
       <c r="R149" s="2"/>
       <c r="S149" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="T149" s="2" t="s">
         <v>780</v>
-      </c>
-      <c r="T149" s="2" t="s">
-        <v>781</v>
       </c>
       <c r="U149" s="2"/>
       <c r="V149" s="2"/>
@@ -14818,16 +14813,16 @@
         <v>45</v>
       </c>
       <c r="X149" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Y149" s="2"/>
     </row>
     <row r="150" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>782</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>783</v>
       </c>
       <c r="C150" s="12">
         <v>2021</v>
@@ -14872,16 +14867,16 @@
         <v>33</v>
       </c>
       <c r="Q150" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R150" s="2" t="s">
         <v>581</v>
       </c>
       <c r="S150" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="T150" s="2" t="s">
         <v>785</v>
-      </c>
-      <c r="T150" s="2" t="s">
-        <v>786</v>
       </c>
       <c r="U150" s="2" t="s">
         <v>432</v>
@@ -14897,10 +14892,10 @@
     </row>
     <row r="151" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>787</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>788</v>
       </c>
       <c r="C151" s="12">
         <v>2022</v>
@@ -14942,7 +14937,7 @@
         <v>1</v>
       </c>
       <c r="P151" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q151" s="2">
         <v>2015</v>
@@ -14951,10 +14946,10 @@
         <v>78</v>
       </c>
       <c r="S151" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="T151" s="2" t="s">
         <v>790</v>
-      </c>
-      <c r="T151" s="2" t="s">
-        <v>791</v>
       </c>
       <c r="U151" s="2" t="s">
         <v>44</v>
@@ -14970,10 +14965,10 @@
     </row>
     <row r="152" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>792</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>793</v>
       </c>
       <c r="C152" s="12">
         <v>2021</v>
@@ -15015,16 +15010,16 @@
         <v>105</v>
       </c>
       <c r="P152" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q152" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="R152" s="2" t="s">
         <v>350</v>
       </c>
       <c r="S152" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="T152" s="2" t="s">
         <v>566</v>
@@ -15041,10 +15036,10 @@
     </row>
     <row r="153" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="B153" s="13" t="s">
         <v>796</v>
-      </c>
-      <c r="B153" s="13" t="s">
-        <v>797</v>
       </c>
       <c r="C153" s="14">
         <v>2022</v>
@@ -15080,23 +15075,23 @@
         <v>28</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="O153" s="12"/>
       <c r="P153" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="Q153" s="2" t="s">
         <v>799</v>
-      </c>
-      <c r="Q153" s="2" t="s">
-        <v>800</v>
       </c>
       <c r="R153" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S153" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="T153" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="U153" s="2" t="s">
         <v>44</v>
@@ -15110,16 +15105,16 @@
     </row>
     <row r="154" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>802</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>803</v>
       </c>
       <c r="C154" s="12">
         <v>2022</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E154" s="15">
         <v>35531170</v>
@@ -15155,19 +15150,19 @@
         <v>8</v>
       </c>
       <c r="P154" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="Q154" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="R154" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="S154" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="R154" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="S154" s="2" t="s">
-        <v>806</v>
-      </c>
       <c r="T154" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="U154" s="2" t="s">
         <v>44</v>
@@ -15181,10 +15176,10 @@
     </row>
     <row r="155" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>807</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>808</v>
       </c>
       <c r="C155" s="12">
         <v>2022</v>
@@ -15226,19 +15221,19 @@
         <v>500</v>
       </c>
       <c r="P155" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="Q155" s="2" t="s">
         <v>809</v>
-      </c>
-      <c r="Q155" s="2" t="s">
-        <v>810</v>
       </c>
       <c r="R155" s="2" t="s">
         <v>112</v>
       </c>
       <c r="S155" s="18" t="s">
+        <v>810</v>
+      </c>
+      <c r="T155" s="2" t="s">
         <v>811</v>
-      </c>
-      <c r="T155" s="2" t="s">
-        <v>812</v>
       </c>
       <c r="U155" s="2" t="s">
         <v>432</v>
@@ -15254,16 +15249,16 @@
     </row>
     <row r="156" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>813</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>814</v>
       </c>
       <c r="C156" s="12">
         <v>2022</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E156" s="15">
         <v>35789906</v>
@@ -15297,17 +15292,17 @@
       </c>
       <c r="O156" s="12"/>
       <c r="P156" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" s="2" t="s">
         <v>85</v>
       </c>
       <c r="S156" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="T156" s="2" t="s">
         <v>817</v>
-      </c>
-      <c r="T156" s="2" t="s">
-        <v>818</v>
       </c>
       <c r="U156" s="2" t="s">
         <v>432</v>
@@ -15317,22 +15312,22 @@
         <v>164</v>
       </c>
       <c r="X156" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Y156" s="2"/>
     </row>
     <row r="157" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>819</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>820</v>
       </c>
       <c r="C157" s="12">
         <v>2022</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E157" s="15">
         <v>36014962</v>
@@ -15374,10 +15369,10 @@
         <v>2021</v>
       </c>
       <c r="R157" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="S157" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="T157" s="2" t="s">
         <v>254</v>
@@ -15396,16 +15391,16 @@
     </row>
     <row r="158" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>823</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>824</v>
       </c>
       <c r="C158" s="12">
         <v>2022</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E158" s="15">
         <v>36108783</v>
@@ -15435,21 +15430,21 @@
         <v>28</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="O158" s="12"/>
       <c r="P158" s="2" t="s">
         <v>40</v>
       </c>
       <c r="Q158" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="R158" s="2" t="s">
         <v>581</v>
       </c>
       <c r="S158" s="2"/>
       <c r="T158" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="U158" s="2" t="s">
         <v>432</v>
@@ -15463,16 +15458,16 @@
     </row>
     <row r="159" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>829</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>830</v>
       </c>
       <c r="C159" s="12">
         <v>2022</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E159" s="15">
         <v>36268900</v>
@@ -15511,10 +15506,10 @@
         <v>254</v>
       </c>
       <c r="Q159" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R159" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="S159" s="2"/>
       <c r="T159" s="2" t="s">
@@ -15534,16 +15529,16 @@
     </row>
     <row r="160" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>832</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>833</v>
       </c>
       <c r="C160" s="12">
         <v>2022</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E160" s="15">
         <v>36558837</v>
@@ -15585,11 +15580,11 @@
         <v>2018</v>
       </c>
       <c r="R160" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="S160" s="2"/>
       <c r="T160" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="U160" s="2" t="s">
         <v>432</v>
@@ -15605,10 +15600,10 @@
     </row>
     <row r="161" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>835</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>836</v>
       </c>
       <c r="C161" s="12">
         <v>2023</v>
@@ -15648,7 +15643,7 @@
       </c>
       <c r="O161" s="12"/>
       <c r="P161" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="Q161" s="2">
         <v>2018</v>
@@ -15672,10 +15667,10 @@
     </row>
     <row r="162" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>838</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>839</v>
       </c>
       <c r="C162" s="12">
         <v>2023</v>
@@ -15720,13 +15715,13 @@
         <v>33</v>
       </c>
       <c r="Q162" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="R162" s="2" t="s">
         <v>350</v>
       </c>
       <c r="S162" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="T162" s="18"/>
       <c r="U162" s="2"/>
@@ -15739,10 +15734,10 @@
     </row>
     <row r="163" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>842</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>843</v>
       </c>
       <c r="C163" s="12">
         <v>2023</v>
@@ -15793,7 +15788,7 @@
         <v>41</v>
       </c>
       <c r="S163" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="T163" s="2" t="s">
         <v>66</v>
@@ -15812,10 +15807,10 @@
     </row>
     <row r="164" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>845</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>846</v>
       </c>
       <c r="C164" s="12">
         <v>2023</v>
@@ -15866,7 +15861,7 @@
         <v>188</v>
       </c>
       <c r="S164" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="T164" s="2" t="s">
         <v>170</v>
@@ -15885,16 +15880,16 @@
     </row>
     <row r="165" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>848</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>849</v>
       </c>
       <c r="C165" s="12">
         <v>2023</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E165" s="15">
         <v>37056704</v>
@@ -15930,19 +15925,19 @@
         <v>1</v>
       </c>
       <c r="P165" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="Q165" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="Q165" s="2" t="s">
+      <c r="R165" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="R165" s="2" t="s">
+      <c r="S165" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="S165" s="2" t="s">
-        <v>854</v>
-      </c>
       <c r="T165" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="U165" s="2" t="s">
         <v>44</v>
@@ -15956,16 +15951,16 @@
     </row>
     <row r="166" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>855</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>856</v>
       </c>
       <c r="C166" s="12">
         <v>2023</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E166" s="15">
         <v>37323891</v>
@@ -15995,22 +15990,22 @@
         <v>28</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="O166" s="12">
         <v>40</v>
       </c>
       <c r="P166" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="Q166" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="R166" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S166" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="T166" s="2" t="s">
         <v>50</v>
@@ -16027,10 +16022,10 @@
     </row>
     <row r="167" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>861</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>862</v>
       </c>
       <c r="C167" s="12">
         <v>2023</v>
@@ -16066,7 +16061,7 @@
         <v>28</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="O167" s="12">
         <v>4</v>
@@ -16089,17 +16084,17 @@
       </c>
       <c r="V167" s="2"/>
       <c r="W167" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
     </row>
     <row r="168" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>865</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>866</v>
       </c>
       <c r="C168" s="12">
         <v>2023</v>
@@ -16141,17 +16136,17 @@
         <v>8</v>
       </c>
       <c r="P168" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q168" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="R168" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S168" s="2"/>
       <c r="T168" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="U168" s="2" t="s">
         <v>432</v>
@@ -16165,10 +16160,10 @@
     </row>
     <row r="169" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>869</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>870</v>
       </c>
       <c r="C169" s="12">
         <v>2024</v>
@@ -16213,13 +16208,13 @@
         <v>33</v>
       </c>
       <c r="Q169" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="R169" s="2" t="s">
         <v>41</v>
       </c>
       <c r="S169" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="T169" s="2" t="s">
         <v>87</v>
@@ -16230,16 +16225,16 @@
         <v>164</v>
       </c>
       <c r="X169" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Y169" s="2"/>
     </row>
     <row r="170" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>874</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>875</v>
       </c>
       <c r="C170" s="12">
         <v>2024</v>
@@ -16281,19 +16276,19 @@
         <v>2</v>
       </c>
       <c r="P170" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="Q170" s="2">
         <v>2022</v>
       </c>
       <c r="R170" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="S170" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="S170" s="2" t="s">
+      <c r="T170" s="2" t="s">
         <v>878</v>
-      </c>
-      <c r="T170" s="2" t="s">
-        <v>879</v>
       </c>
       <c r="U170" s="2" t="s">
         <v>432</v>
@@ -16307,10 +16302,10 @@
     </row>
     <row r="171" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>880</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>881</v>
       </c>
       <c r="C171" s="12">
         <v>2024</v>
@@ -16352,16 +16347,16 @@
         <v>2</v>
       </c>
       <c r="P171" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="Q171" s="2">
         <v>2020</v>
       </c>
       <c r="R171" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="S171" s="2" t="s">
         <v>883</v>
-      </c>
-      <c r="S171" s="2" t="s">
-        <v>884</v>
       </c>
       <c r="T171" s="2" t="s">
         <v>50</v>
@@ -16378,10 +16373,10 @@
     </row>
     <row r="172" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>885</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>886</v>
       </c>
       <c r="C172" s="12">
         <v>2024</v>
@@ -16426,13 +16421,13 @@
         <v>33</v>
       </c>
       <c r="Q172" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="R172" s="2" t="s">
         <v>188</v>
       </c>
       <c r="S172" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="T172" s="2" t="s">
         <v>148</v>
@@ -16449,16 +16444,16 @@
     </row>
     <row r="173" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>889</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>890</v>
       </c>
       <c r="C173" s="12">
         <v>2024</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E173" s="15">
         <v>39065234</v>
@@ -16494,7 +16489,7 @@
         <v>1</v>
       </c>
       <c r="P173" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="Q173" s="2">
         <v>2021</v>
@@ -16503,10 +16498,10 @@
         <v>78</v>
       </c>
       <c r="S173" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="T173" s="2" t="s">
         <v>892</v>
-      </c>
-      <c r="T173" s="2" t="s">
-        <v>893</v>
       </c>
       <c r="U173" s="2" t="s">
         <v>432</v>
@@ -16520,16 +16515,16 @@
     </row>
     <row r="174" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>894</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>895</v>
       </c>
       <c r="C174" s="12">
         <v>2024</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E174" s="15">
         <v>39147851</v>
@@ -16571,36 +16566,36 @@
         <v>2021</v>
       </c>
       <c r="R174" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="S174" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="S174" s="2" t="s">
+      <c r="T174" s="2" t="s">
         <v>898</v>
-      </c>
-      <c r="T174" s="2" t="s">
-        <v>899</v>
       </c>
       <c r="U174" s="2" t="s">
         <v>432</v>
       </c>
       <c r="V174" s="2"/>
       <c r="W174" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
     </row>
     <row r="175" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
+        <v>900</v>
+      </c>
+      <c r="B175" s="15" t="s">
         <v>901</v>
-      </c>
-      <c r="B175" s="15" t="s">
-        <v>902</v>
       </c>
       <c r="C175" s="15">
         <v>2002</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E175" s="23">
         <v>12173427</v>
@@ -16636,19 +16631,19 @@
         <v>18</v>
       </c>
       <c r="P175" s="15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Q175" s="15" t="s">
         <v>118</v>
       </c>
       <c r="R175" s="15" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="S175" s="15" t="s">
         <v>120</v>
       </c>
       <c r="T175" s="15" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="U175" s="15" t="s">
         <v>44</v>
@@ -16661,21 +16656,21 @@
       </c>
       <c r="X175" s="17"/>
       <c r="Y175" s="17" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="176" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
+        <v>906</v>
+      </c>
+      <c r="B176" s="15" t="s">
         <v>907</v>
-      </c>
-      <c r="B176" s="15" t="s">
-        <v>908</v>
       </c>
       <c r="C176" s="15">
         <v>2014</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E176" s="20">
         <v>25845138</v>
@@ -16720,7 +16715,7 @@
         <v>112</v>
       </c>
       <c r="S176" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="T176" s="15" t="s">
         <v>87</v>
@@ -16734,21 +16729,21 @@
       </c>
       <c r="X176" s="17"/>
       <c r="Y176" s="17" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="177" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B177" s="15" t="s">
         <v>910</v>
-      </c>
-      <c r="B177" s="15" t="s">
-        <v>911</v>
       </c>
       <c r="C177" s="15">
         <v>2014</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E177" s="20">
         <v>25335413</v>
@@ -16791,7 +16786,7 @@
         <v>112</v>
       </c>
       <c r="S177" s="15" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="T177" s="15" t="s">
         <v>40</v>
@@ -16801,25 +16796,25 @@
       </c>
       <c r="V177" s="15"/>
       <c r="W177" s="15" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="X177" s="17"/>
       <c r="Y177" s="17" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="178" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="15" t="s">
+        <v>913</v>
+      </c>
+      <c r="B178" s="15" t="s">
         <v>914</v>
-      </c>
-      <c r="B178" s="15" t="s">
-        <v>915</v>
       </c>
       <c r="C178" s="15">
         <v>2013</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E178" s="20">
         <v>24364143</v>
@@ -16855,7 +16850,7 @@
         <v>12</v>
       </c>
       <c r="P178" s="15" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="Q178" s="15">
         <v>2009</v>
@@ -16864,7 +16859,7 @@
         <v>180</v>
       </c>
       <c r="S178" s="15" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="T178" s="15" t="s">
         <v>40</v>
@@ -16878,21 +16873,21 @@
       </c>
       <c r="X178" s="17"/>
       <c r="Y178" s="17" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="179" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="15" t="s">
+        <v>917</v>
+      </c>
+      <c r="B179" s="15" t="s">
         <v>918</v>
-      </c>
-      <c r="B179" s="15" t="s">
-        <v>919</v>
       </c>
       <c r="C179" s="15">
         <v>2005</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E179" s="20">
         <v>16415986</v>
@@ -16928,19 +16923,19 @@
         <v>17</v>
       </c>
       <c r="P179" s="15" t="s">
+        <v>932</v>
+      </c>
+      <c r="Q179" s="15" t="s">
         <v>933</v>
-      </c>
-      <c r="Q179" s="15" t="s">
-        <v>934</v>
       </c>
       <c r="R179" s="15" t="s">
         <v>78</v>
       </c>
       <c r="S179" s="15" t="s">
+        <v>920</v>
+      </c>
+      <c r="T179" s="15" t="s">
         <v>921</v>
-      </c>
-      <c r="T179" s="15" t="s">
-        <v>922</v>
       </c>
       <c r="U179" s="15" t="s">
         <v>44</v>
@@ -16953,21 +16948,21 @@
       </c>
       <c r="X179" s="17"/>
       <c r="Y179" s="17" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="180" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="B180" s="15" t="s">
         <v>923</v>
-      </c>
-      <c r="B180" s="15" t="s">
-        <v>924</v>
       </c>
       <c r="C180" s="15">
         <v>2001</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E180" s="20">
         <v>11436635</v>
@@ -17010,7 +17005,7 @@
         <v>78</v>
       </c>
       <c r="S180" s="15" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="T180" s="15"/>
       <c r="U180" s="15" t="s">
@@ -17024,21 +17019,21 @@
       </c>
       <c r="X180" s="17"/>
       <c r="Y180" s="17" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="181" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="15" t="s">
+        <v>924</v>
+      </c>
+      <c r="B181" s="15" t="s">
         <v>925</v>
-      </c>
-      <c r="B181" s="15" t="s">
-        <v>926</v>
       </c>
       <c r="C181" s="15">
         <v>2002</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E181" s="20">
         <v>12667358</v>
@@ -17074,10 +17069,10 @@
         <v>5</v>
       </c>
       <c r="P181" s="15" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q181" s="15" t="s">
         <v>936</v>
-      </c>
-      <c r="Q181" s="15" t="s">
-        <v>937</v>
       </c>
       <c r="R181" s="15" t="s">
         <v>78</v>
@@ -17095,21 +17090,21 @@
       </c>
       <c r="X181" s="17"/>
       <c r="Y181" s="17" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="182" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="15" t="s">
+        <v>927</v>
+      </c>
+      <c r="B182" s="15" t="s">
         <v>928</v>
-      </c>
-      <c r="B182" s="15" t="s">
-        <v>929</v>
       </c>
       <c r="C182" s="15">
         <v>2006</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E182" s="20">
         <v>17415983</v>
@@ -17145,17 +17140,17 @@
         <v>36</v>
       </c>
       <c r="P182" s="15" t="s">
+        <v>929</v>
+      </c>
+      <c r="Q182" s="15" t="s">
         <v>930</v>
-      </c>
-      <c r="Q182" s="15" t="s">
-        <v>931</v>
       </c>
       <c r="R182" s="15" t="s">
         <v>78</v>
       </c>
       <c r="S182" s="15"/>
       <c r="T182" s="15" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="U182" s="15" t="s">
         <v>44</v>
@@ -17168,7 +17163,7 @@
       </c>
       <c r="X182" s="17"/>
       <c r="Y182" s="17" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
   </sheetData>
